--- a/time14.xlsx
+++ b/time14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D456"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.303945147557374</v>
+        <v>3.851948827787433</v>
       </c>
       <c r="C2" t="n">
-        <v>4.443885062257494</v>
+        <v>3.997716356250582</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1399399147001201</v>
+        <v>-0.1457675284631494</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.307309072735264</v>
+        <v>3.88455317101162</v>
       </c>
       <c r="C3" t="n">
-        <v>4.334133546381271</v>
+        <v>3.926451780817111</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02682447364600726</v>
+        <v>-0.0418986098054912</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.31582243168647</v>
+        <v>3.885813755603134</v>
       </c>
       <c r="C4" t="n">
-        <v>4.363842029896046</v>
+        <v>3.955012936459467</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04801959820957524</v>
+        <v>-0.06919918085633325</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.32920486398053</v>
+        <v>3.891627295629014</v>
       </c>
       <c r="C5" t="n">
-        <v>4.335791450003931</v>
+        <v>3.89414311281692</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006586586023401786</v>
+        <v>-0.002515817187906499</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.330193647517319</v>
+        <v>3.917313906509748</v>
       </c>
       <c r="C6" t="n">
-        <v>4.351216778764444</v>
+        <v>3.924857229392673</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02102313124712474</v>
+        <v>-0.007543322882924919</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.334870459014279</v>
+        <v>3.920052724601947</v>
       </c>
       <c r="C7" t="n">
-        <v>4.382781404642071</v>
+        <v>4.003778360442758</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04791094562779286</v>
+        <v>-0.0837256358408105</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.338912184006462</v>
+        <v>3.967449330897925</v>
       </c>
       <c r="C8" t="n">
-        <v>4.371085011873129</v>
+        <v>3.973833399476228</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03217282786666686</v>
+        <v>-0.00638406857830276</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.379501492220077</v>
+        <v>5.929867015920441</v>
       </c>
       <c r="C9" t="n">
-        <v>4.403586024047997</v>
+        <v>6.022429688183076</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0240845318279197</v>
+        <v>-0.09256267226263493</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.392007585733081</v>
+        <v>5.932973893954316</v>
       </c>
       <c r="C10" t="n">
-        <v>4.405059738320536</v>
+        <v>5.945894243505665</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01305215258745474</v>
+        <v>-0.01292034955134813</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.410836161342861</v>
+        <v>5.963769319423524</v>
       </c>
       <c r="C11" t="n">
-        <v>9.506379235593041</v>
+        <v>6.055229906085035</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09554307425018038</v>
+        <v>-0.09146058666151102</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.412642848475542</v>
+        <v>5.989954316476874</v>
       </c>
       <c r="C12" t="n">
-        <v>9.535969860731168</v>
+        <v>6.00343235775173</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1233270122556256</v>
+        <v>-0.01347804127485563</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.434266898905806</v>
+        <v>5.994239134055913</v>
       </c>
       <c r="C13" t="n">
-        <v>9.519030080030053</v>
+        <v>6.042807532918948</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08476318112424686</v>
+        <v>-0.04856839886303455</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.447394456385517</v>
+        <v>6.008784597851287</v>
       </c>
       <c r="C14" t="n">
-        <v>9.541580337843243</v>
+        <v>6.010524392443698</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09418588145772588</v>
+        <v>-0.001739794592411137</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.458072382281125</v>
+        <v>6.031580481546735</v>
       </c>
       <c r="C15" t="n">
-        <v>9.4706534620084</v>
+        <v>6.047991935451455</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01258107972727451</v>
+        <v>-0.01641145390471976</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.542898863186601</v>
+        <v>7.76971381737405</v>
       </c>
       <c r="C16" t="n">
-        <v>9.567024905148187</v>
+        <v>7.787030017341046</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02412604196158696</v>
+        <v>-0.01731619996699685</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.41363072201644</v>
+        <v>7.774467973903072</v>
       </c>
       <c r="C17" t="n">
-        <v>12.43804885573966</v>
+        <v>7.814763989362338</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02441813372321988</v>
+        <v>-0.04029601545926553</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.43528439919407</v>
+        <v>7.777082120610158</v>
       </c>
       <c r="C18" t="n">
-        <v>12.47938615695885</v>
+        <v>7.817686718195357</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0441017577647802</v>
+        <v>-0.0406045975851983</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.43887535471146</v>
+        <v>7.779106602769795</v>
       </c>
       <c r="C19" t="n">
-        <v>12.47780762294576</v>
+        <v>7.845631824396721</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03893226823430318</v>
+        <v>-0.06652522162692609</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.44279945481797</v>
+        <v>7.796268144365524</v>
       </c>
       <c r="C20" t="n">
-        <v>12.46877874833538</v>
+        <v>7.811909877989884</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02597929351740724</v>
+        <v>-0.01564173362436083</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.44687940714748</v>
+        <v>7.81589529541957</v>
       </c>
       <c r="C21" t="n">
-        <v>12.52302501485859</v>
+        <v>7.909464990665234</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.07614560771111734</v>
+        <v>-0.09356969524566416</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.44730075659447</v>
+        <v>7.829750038302638</v>
       </c>
       <c r="C22" t="n">
-        <v>12.49405927140348</v>
+        <v>7.894646858212758</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04675851480901549</v>
+        <v>-0.06489681991012031</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.45174871207204</v>
+        <v>7.831381241985376</v>
       </c>
       <c r="C23" t="n">
-        <v>12.4996733483158</v>
+        <v>7.911206045049953</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04792463624376353</v>
+        <v>-0.07982480306457695</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.46145351670856</v>
+        <v>7.833662672414813</v>
       </c>
       <c r="C24" t="n">
-        <v>12.4629565945463</v>
+        <v>7.858522121090274</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001503077837739397</v>
+        <v>-0.02485944867546053</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.46742629334493</v>
+        <v>7.836047627502861</v>
       </c>
       <c r="C25" t="n">
-        <v>12.55018949403107</v>
+        <v>7.864236332397581</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0827632006861414</v>
+        <v>-0.02818870489471959</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.47692029922061</v>
+        <v>7.875174847155905</v>
       </c>
       <c r="C26" t="n">
-        <v>12.50585785511542</v>
+        <v>7.883128932157975</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02893755589481017</v>
+        <v>-0.007954085002070066</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.51215531936157</v>
+        <v>7.877424990539766</v>
       </c>
       <c r="C27" t="n">
-        <v>12.53729903728697</v>
+        <v>7.897333658289718</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02514371792540437</v>
+        <v>-0.01990866774995226</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.5460441675494</v>
+        <v>7.881736270493076</v>
       </c>
       <c r="C28" t="n">
-        <v>12.5476291210797</v>
+        <v>7.917543383617005</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.001584953530299416</v>
+        <v>-0.03580711312392904</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.77847061133096</v>
+        <v>7.885504550064357</v>
       </c>
       <c r="C29" t="n">
-        <v>12.55397431665876</v>
+        <v>7.891782722062081</v>
       </c>
       <c r="D29" t="n">
-        <v>0.224496294672198</v>
+        <v>-0.006278171997724513</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.00604562614746</v>
+        <v>9.604274082786068</v>
       </c>
       <c r="C30" t="n">
-        <v>13.15056624214903</v>
+        <v>9.651106174832266</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1445206160015715</v>
+        <v>-0.04683209204619843</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.03751793616148</v>
+        <v>9.610871301385206</v>
       </c>
       <c r="C31" t="n">
-        <v>13.12969463260763</v>
+        <v>9.670972539370274</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.09217669644614546</v>
+        <v>-0.06010123798506761</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.04380910373764</v>
+        <v>9.625680545873585</v>
       </c>
       <c r="C32" t="n">
-        <v>13.05349381217003</v>
+        <v>9.684739201292583</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.009684708432384781</v>
+        <v>-0.05905865541899757</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.05591513158875</v>
+        <v>9.634106568428091</v>
       </c>
       <c r="C33" t="n">
-        <v>13.10848443752131</v>
+        <v>9.708229961007119</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.05256930593256115</v>
+        <v>-0.07412339257902723</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.07870030804849</v>
+        <v>9.643377919193192</v>
       </c>
       <c r="C34" t="n">
-        <v>13.12897541424368</v>
+        <v>9.681127939911185</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.05027510619518694</v>
+        <v>-0.03775002071799349</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.08351748984851</v>
+        <v>9.65305433077893</v>
       </c>
       <c r="C35" t="n">
-        <v>13.12697344881864</v>
+        <v>9.731658069689193</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04345595897012977</v>
+        <v>-0.07860373891026207</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.09170556895853</v>
+        <v>9.655468530169225</v>
       </c>
       <c r="C36" t="n">
-        <v>13.17814484557334</v>
+        <v>9.680986396527402</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.08643927661480966</v>
+        <v>-0.02551786635817699</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.09220868356045</v>
+        <v>9.67590026424873</v>
       </c>
       <c r="C37" t="n">
-        <v>13.14831779475083</v>
+        <v>9.693080612290769</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.05610911119037887</v>
+        <v>-0.01718034804203938</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.14869441910423</v>
+        <v>9.919126888441294</v>
       </c>
       <c r="C38" t="n">
-        <v>13.15368321502166</v>
+        <v>10.00166574017002</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.004988795917428845</v>
+        <v>-0.08253885172872799</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.81915124833735</v>
+        <v>9.925386285995275</v>
       </c>
       <c r="C39" t="n">
-        <v>20.82815531220303</v>
+        <v>9.991397199042918</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.009004063865681644</v>
+        <v>-0.06601091304764317</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.82646747035993</v>
+        <v>9.939357834118494</v>
       </c>
       <c r="C40" t="n">
-        <v>20.89093285470729</v>
+        <v>10.07719334620195</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06446538434736482</v>
+        <v>-0.1378355120834573</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.83806126803269</v>
+        <v>9.975084600439288</v>
       </c>
       <c r="C41" t="n">
-        <v>20.94052524937368</v>
+        <v>10.02408862099268</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1024639813409927</v>
+        <v>-0.04900402055339548</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.84871226512341</v>
+        <v>9.986996647328525</v>
       </c>
       <c r="C42" t="n">
-        <v>20.85900804523868</v>
+        <v>9.9997273305582</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01029578011526766</v>
+        <v>-0.01273068322967497</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.87237055765559</v>
+        <v>9.987163644714641</v>
       </c>
       <c r="C43" t="n">
-        <v>20.92057666022434</v>
+        <v>10.04451239675956</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.04820610256875213</v>
+        <v>-0.05734875204491985</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.877703338797</v>
+        <v>9.990284010523855</v>
       </c>
       <c r="C44" t="n">
-        <v>20.87936619191137</v>
+        <v>10.01441624947538</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.00166285311436809</v>
+        <v>-0.02413223895152683</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.88145495923654</v>
+        <v>9.990696580729487</v>
       </c>
       <c r="C45" t="n">
-        <v>20.92804960416332</v>
+        <v>10.03521969610801</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.04659464492678111</v>
+        <v>-0.04452311537852083</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20.8909830023294</v>
+        <v>10.00811450275159</v>
       </c>
       <c r="C46" t="n">
-        <v>20.92002441502796</v>
+        <v>10.04659887113427</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.02904141269856098</v>
+        <v>-0.03848436838268121</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.89165226032927</v>
+        <v>10.04216711842071</v>
       </c>
       <c r="C47" t="n">
-        <v>20.94560612626637</v>
+        <v>10.06651972702183</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.05395386593709617</v>
+        <v>-0.0243526086011272</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.90538550397066</v>
+        <v>10.05145776843595</v>
       </c>
       <c r="C48" t="n">
-        <v>20.93692372358051</v>
+        <v>10.07680643468176</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0315382196098497</v>
+        <v>-0.02534866624580978</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.91209102242952</v>
+        <v>10.05332246914402</v>
       </c>
       <c r="C49" t="n">
-        <v>20.94827952898364</v>
+        <v>10.06377065922343</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.03618850655412587</v>
+        <v>-0.010448190079412</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.92666935451899</v>
+        <v>10.07352396359382</v>
       </c>
       <c r="C50" t="n">
-        <v>20.95783227186457</v>
+        <v>10.08141827938618</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.03116291734557919</v>
+        <v>-0.007894315792352558</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.06759750583682</v>
+        <v>10.13486051716576</v>
       </c>
       <c r="C51" t="n">
-        <v>20.90167908104074</v>
+        <v>10.05860746324301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1659184247960788</v>
+        <v>0.07625305392275017</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22.20499783338199</v>
+        <v>13.47542000932744</v>
       </c>
       <c r="C52" t="n">
-        <v>22.25068815368145</v>
+        <v>13.64224699957876</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0456903202994603</v>
+        <v>-0.1668269902513284</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22.20956730833674</v>
+        <v>13.48189051980095</v>
       </c>
       <c r="C53" t="n">
-        <v>22.3325282867312</v>
+        <v>13.64570558054126</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1229609783944561</v>
+        <v>-0.1638150607403084</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22.21016572674089</v>
+        <v>13.51366122954257</v>
       </c>
       <c r="C54" t="n">
-        <v>22.21616209502066</v>
+        <v>13.55988745293318</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005996368279770792</v>
+        <v>-0.04622622339061166</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22.2111808459114</v>
+        <v>13.51378437125369</v>
       </c>
       <c r="C55" t="n">
-        <v>22.2888396025169</v>
+        <v>13.52097528297508</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.07765875660550137</v>
+        <v>-0.007190911721389526</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22.22369462999514</v>
+        <v>13.54904141686756</v>
       </c>
       <c r="C56" t="n">
-        <v>22.30911881475019</v>
+        <v>13.59876975248634</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.08542418475505187</v>
+        <v>-0.04972833561878431</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22.24669666808447</v>
+        <v>13.56406528317294</v>
       </c>
       <c r="C57" t="n">
-        <v>22.26263636432423</v>
+        <v>13.63543492776684</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01593969623976221</v>
+        <v>-0.07136964459389716</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22.24790209594975</v>
+        <v>13.59429436115639</v>
       </c>
       <c r="C58" t="n">
-        <v>22.3156329824625</v>
+        <v>13.63035971630348</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.06773088651274506</v>
+        <v>-0.0360653551470822</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22.25529313643882</v>
+        <v>13.61406702590381</v>
       </c>
       <c r="C59" t="n">
-        <v>22.29237412309681</v>
+        <v>13.62629202044498</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.03708098665799398</v>
+        <v>-0.01222499454117276</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.2717189327778</v>
+        <v>13.83096273464321</v>
       </c>
       <c r="C60" t="n">
-        <v>22.34848896637666</v>
+        <v>13.93516095072001</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.07677003359886214</v>
+        <v>-0.1041982160767958</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.2840723530713</v>
+        <v>13.85416928725778</v>
       </c>
       <c r="C61" t="n">
-        <v>22.28637922168302</v>
+        <v>13.93062548332491</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.002306868611725577</v>
+        <v>-0.07645619606713083</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.2856191035125</v>
+        <v>13.85669816599286</v>
       </c>
       <c r="C62" t="n">
-        <v>22.33780470859637</v>
+        <v>13.96783830654245</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.05218560508387071</v>
+        <v>-0.1111401405495869</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.32412303612432</v>
+        <v>13.86064367196119</v>
       </c>
       <c r="C63" t="n">
-        <v>22.33037010732262</v>
+        <v>13.86182835451539</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.006247071198302478</v>
+        <v>-0.001184682554198346</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22.68655140119105</v>
+        <v>13.86426881620123</v>
       </c>
       <c r="C64" t="n">
-        <v>22.32695145502872</v>
+        <v>13.96354475190171</v>
       </c>
       <c r="D64" t="n">
-        <v>0.35959994616233</v>
+        <v>-0.09927593570047755</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23.01002663508633</v>
+        <v>13.88428440999874</v>
       </c>
       <c r="C65" t="n">
-        <v>23.10373455671169</v>
+        <v>13.90555922911746</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.09370792162535935</v>
+        <v>-0.02127481911872131</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.02376945432246</v>
+        <v>13.88556748979149</v>
       </c>
       <c r="C66" t="n">
-        <v>23.02662663709749</v>
+        <v>13.94478996559794</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.002857182775024114</v>
+        <v>-0.05922247580644502</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.02390731370255</v>
+        <v>13.90456712697756</v>
       </c>
       <c r="C67" t="n">
-        <v>23.12114114740205</v>
+        <v>13.93840594432676</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.09723383369949801</v>
+        <v>-0.03383881734919925</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.03505796589227</v>
+        <v>13.93735850830428</v>
       </c>
       <c r="C68" t="n">
-        <v>23.06878053295422</v>
+        <v>13.96978002440788</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.03372256706195031</v>
+        <v>-0.03242151610359834</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23.040355392091</v>
+        <v>13.93993603366006</v>
       </c>
       <c r="C69" t="n">
-        <v>23.10751560461471</v>
+        <v>13.99702223765087</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.06716021252370652</v>
+        <v>-0.05708620399080822</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.04301151298852</v>
+        <v>13.95433110804275</v>
       </c>
       <c r="C70" t="n">
-        <v>23.13075218832926</v>
+        <v>13.98625546201443</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.08774067534073637</v>
+        <v>-0.03192435397167692</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.06073134291061</v>
+        <v>13.95769095538134</v>
       </c>
       <c r="C71" t="n">
-        <v>23.13446895826079</v>
+        <v>13.99664770761129</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.0737376153501863</v>
+        <v>-0.03895675222995365</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.07586836793213</v>
+        <v>13.97172555025453</v>
       </c>
       <c r="C72" t="n">
-        <v>23.09354673764692</v>
+        <v>13.99024909309395</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01767836971478687</v>
+        <v>-0.01852354283942148</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23.08104429115532</v>
+        <v>13.97763092416994</v>
       </c>
       <c r="C73" t="n">
-        <v>23.09271516155708</v>
+        <v>13.90084438643604</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01167087040176185</v>
+        <v>0.07678653773390565</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23.08780057920478</v>
+        <v>15.51075571052724</v>
       </c>
       <c r="C74" t="n">
-        <v>23.13244233248144</v>
+        <v>15.54163571997158</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.04464175327666098</v>
+        <v>-0.03088000944434022</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23.09434885628934</v>
+        <v>15.52574405642921</v>
       </c>
       <c r="C75" t="n">
-        <v>23.11598875034784</v>
+        <v>15.61640242088372</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02163989405850231</v>
+        <v>-0.09065836445451048</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23.10180139486985</v>
+        <v>15.55420771633636</v>
       </c>
       <c r="C76" t="n">
-        <v>23.1366648404628</v>
+        <v>15.62117999036095</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03486344559295773</v>
+        <v>-0.0669722740245895</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23.10914468220693</v>
+        <v>15.56608553360616</v>
       </c>
       <c r="C77" t="n">
-        <v>23.13247052074086</v>
+        <v>15.63248200161047</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02332583853393189</v>
+        <v>-0.06639646800430832</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23.13656675476218</v>
+        <v>15.57006864528217</v>
       </c>
       <c r="C78" t="n">
-        <v>23.14208757589608</v>
+        <v>15.57016294967164</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.00552082113389929</v>
+        <v>-9.43043894690021e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23.20460606882304</v>
+        <v>15.57999865650739</v>
       </c>
       <c r="C79" t="n">
-        <v>23.14060828761093</v>
+        <v>15.64938737904513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06399778121210176</v>
+        <v>-0.06938872253773809</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>33.57246764009811</v>
+        <v>15.58623729922565</v>
       </c>
       <c r="C80" t="n">
-        <v>33.73474565025086</v>
+        <v>15.58859161958855</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1622780101527539</v>
+        <v>-0.002354320362890405</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>33.58301656162125</v>
+        <v>15.59677624600533</v>
       </c>
       <c r="C81" t="n">
-        <v>33.69151260970712</v>
+        <v>15.59813491127809</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1084960480858683</v>
+        <v>-0.001358665272761073</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>33.5902408394212</v>
+        <v>15.59994292945312</v>
       </c>
       <c r="C82" t="n">
-        <v>33.65234870701824</v>
+        <v>15.60562867040737</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.06210786759704234</v>
+        <v>-0.005685740954250562</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>33.59519235282925</v>
+        <v>15.60087395343077</v>
       </c>
       <c r="C83" t="n">
-        <v>33.71531365895868</v>
+        <v>15.63713242991376</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1201213061294268</v>
+        <v>-0.03625847648299718</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>33.5998146347272</v>
+        <v>15.62072149803993</v>
       </c>
       <c r="C84" t="n">
-        <v>33.68177116638417</v>
+        <v>15.64734956751904</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.08195653165697792</v>
+        <v>-0.02662806947911278</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>33.60021664752716</v>
+        <v>20.14651780886269</v>
       </c>
       <c r="C85" t="n">
-        <v>33.68948056068594</v>
+        <v>20.19155117708349</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.08926391315878135</v>
+        <v>-0.04503336822079973</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>33.62117695672057</v>
+        <v>20.18227895415123</v>
       </c>
       <c r="C86" t="n">
-        <v>33.62201379238083</v>
+        <v>20.3027781893588</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0008368356602588278</v>
+        <v>-0.1204992352075713</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>33.6508313819977</v>
+        <v>20.18772563550038</v>
       </c>
       <c r="C87" t="n">
-        <v>33.71408125477367</v>
+        <v>20.21414351863418</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.06324987277596961</v>
+        <v>-0.02641788313380289</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33.66582230684488</v>
+        <v>20.1970841551196</v>
       </c>
       <c r="C88" t="n">
-        <v>33.66809739096407</v>
+        <v>20.21895511882329</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.002275084119190751</v>
+        <v>-0.02187096370369446</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>33.6679175534846</v>
+        <v>20.19721341503985</v>
       </c>
       <c r="C89" t="n">
-        <v>33.69604247507289</v>
+        <v>20.22910937558544</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.02812492158829372</v>
+        <v>-0.03189596054559374</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>33.66972441143795</v>
+        <v>20.20004386126646</v>
       </c>
       <c r="C90" t="n">
-        <v>33.70443774751223</v>
+        <v>20.250343473769</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.03471333607428306</v>
+        <v>-0.05029961250253834</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>33.69948109672552</v>
+        <v>20.20014035628244</v>
       </c>
       <c r="C91" t="n">
-        <v>33.70631432696869</v>
+        <v>20.27038779789223</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.006833230243174171</v>
+        <v>-0.07024744160979779</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>33.71201056115338</v>
+        <v>20.20072545097939</v>
       </c>
       <c r="C92" t="n">
-        <v>33.71842511013789</v>
+        <v>20.22720328487198</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.006414548984501778</v>
+        <v>-0.02647783389258862</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>35.98047704896207</v>
+        <v>20.20523604254852</v>
       </c>
       <c r="C93" t="n">
-        <v>36.1154796311624</v>
+        <v>20.28946784089465</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1350025822003289</v>
+        <v>-0.08423179834612782</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>35.99762342305344</v>
+        <v>20.21509307341861</v>
       </c>
       <c r="C94" t="n">
-        <v>36.02808106688322</v>
+        <v>20.26791628836538</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.03045764382977723</v>
+        <v>-0.05282321494676623</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36.05086381642675</v>
+        <v>20.21701680475768</v>
       </c>
       <c r="C95" t="n">
-        <v>36.14908928190957</v>
+        <v>20.28749127906693</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.09822546548282673</v>
+        <v>-0.07047447430925402</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.06969028059301</v>
+        <v>20.22933735974569</v>
       </c>
       <c r="C96" t="n">
-        <v>36.09036669950889</v>
+        <v>20.29679968854875</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.02067641891588323</v>
+        <v>-0.06746232880305669</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>36.07065768231624</v>
+        <v>20.27312505230968</v>
       </c>
       <c r="C97" t="n">
-        <v>36.13820656944333</v>
+        <v>20.27806071300321</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.06754888712708862</v>
+        <v>-0.00493566069353335</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>36.07402099363534</v>
+        <v>20.28991099794271</v>
       </c>
       <c r="C98" t="n">
-        <v>36.14725334991697</v>
+        <v>20.29467445091625</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.07323235628162905</v>
+        <v>-0.004763452973548965</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36.07557378374291</v>
+        <v>26.62293034204141</v>
       </c>
       <c r="C99" t="n">
-        <v>36.11682621723792</v>
+        <v>26.69936930883881</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.04125243349501062</v>
+        <v>-0.07643896679739726</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>36.08231923175539</v>
+        <v>26.62373511794407</v>
       </c>
       <c r="C100" t="n">
-        <v>36.09974004913294</v>
+        <v>26.75511533818975</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.0174208173775483</v>
+        <v>-0.1313802202456777</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.09006256232647</v>
+        <v>26.62374452138757</v>
       </c>
       <c r="C101" t="n">
-        <v>36.12403880173764</v>
+        <v>26.68099986474195</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.03397623941116734</v>
+        <v>-0.05725534335437743</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>36.09167293960503</v>
+        <v>26.62670854248262</v>
       </c>
       <c r="C102" t="n">
-        <v>36.14470157145808</v>
+        <v>26.73951522546556</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.05302863185304574</v>
+        <v>-0.1128066829829422</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>36.10662463384095</v>
+        <v>26.62811462159834</v>
       </c>
       <c r="C103" t="n">
-        <v>36.11703616846718</v>
+        <v>26.74772109610603</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.01041153462622901</v>
+        <v>-0.119606474507691</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>36.11230978473781</v>
+        <v>26.632404013623</v>
       </c>
       <c r="C104" t="n">
-        <v>36.15066872217529</v>
+        <v>26.66085934314149</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.03835893743747931</v>
+        <v>-0.02845532951848995</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>36.11315724158649</v>
+        <v>26.66148318430787</v>
       </c>
       <c r="C105" t="n">
-        <v>36.11633898546059</v>
+        <v>26.71877868398459</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.003181743874101528</v>
+        <v>-0.05729549967671943</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>36.41940641519331</v>
+        <v>26.68856107534797</v>
       </c>
       <c r="C106" t="n">
-        <v>36.4432672435636</v>
+        <v>26.69444184709142</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.02386082837029591</v>
+        <v>-0.005880771743445479</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>36.43044563954351</v>
+        <v>26.70525571655532</v>
       </c>
       <c r="C107" t="n">
-        <v>36.43091136971743</v>
+        <v>26.76278966160352</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0004657301739143804</v>
+        <v>-0.05753394504819909</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>36.4506282567119</v>
+        <v>26.72614539614854</v>
       </c>
       <c r="C108" t="n">
-        <v>36.46794042561777</v>
+        <v>26.73613906878568</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.01731216890586751</v>
+        <v>-0.009993672637133244</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>36.45525897555452</v>
+        <v>26.7302813039137</v>
       </c>
       <c r="C109" t="n">
-        <v>36.5462849448956</v>
+        <v>26.74716064711659</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0910259693410822</v>
+        <v>-0.01687934320288775</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>36.4723516008001</v>
+        <v>26.74655409814807</v>
       </c>
       <c r="C110" t="n">
-        <v>36.5461780754403</v>
+        <v>26.70480491176242</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.07382647464019954</v>
+        <v>0.04174918638564407</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36.47985821028983</v>
+        <v>28.82332753325652</v>
       </c>
       <c r="C111" t="n">
-        <v>36.50982349372295</v>
+        <v>28.96277601301419</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.02996528343311411</v>
+        <v>-0.1394484797576716</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>36.48718249735018</v>
+        <v>28.89052813895353</v>
       </c>
       <c r="C112" t="n">
-        <v>36.53934614573658</v>
+        <v>28.98089204542294</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.0521636483864043</v>
+        <v>-0.09036390646940973</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>36.48760569934335</v>
+        <v>28.89929509409905</v>
       </c>
       <c r="C113" t="n">
-        <v>36.52879237715589</v>
+        <v>28.98479238334358</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.04118667781254004</v>
+        <v>-0.08549728924452538</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>36.49121547932061</v>
+        <v>28.91819319679703</v>
       </c>
       <c r="C114" t="n">
-        <v>36.49711840441631</v>
+        <v>28.94478535998557</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.005902925095696787</v>
+        <v>-0.02659216318853908</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>36.53668988662963</v>
+        <v>28.91873588678751</v>
       </c>
       <c r="C115" t="n">
-        <v>36.56547886337818</v>
+        <v>28.9776005378582</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.02878897674855097</v>
+        <v>-0.05886465107069228</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>36.54472679825569</v>
+        <v>28.93081026391178</v>
       </c>
       <c r="C116" t="n">
-        <v>36.6706726869742</v>
+        <v>28.94817390386827</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1259458887185119</v>
+        <v>-0.01736363995648915</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>36.56069705869249</v>
+        <v>28.93459794061854</v>
       </c>
       <c r="C117" t="n">
-        <v>36.66675681095991</v>
+        <v>28.95326467407209</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.10605975226742</v>
+        <v>-0.01866673345354641</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36.56282008297799</v>
+        <v>28.94689378304313</v>
       </c>
       <c r="C118" t="n">
-        <v>36.64945321293994</v>
+        <v>28.98533655154253</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.08663312996194605</v>
+        <v>-0.03844276849940442</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.56471419908853</v>
+        <v>29.95918631772745</v>
       </c>
       <c r="C119" t="n">
-        <v>36.57160842258772</v>
+        <v>30.07311966076455</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.006894223499180896</v>
+        <v>-0.1139333430370968</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.58058922640257</v>
+        <v>29.96261670780174</v>
       </c>
       <c r="C120" t="n">
-        <v>36.60741670536261</v>
+        <v>30.04152072950318</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.026827478960044</v>
+        <v>-0.07890402170143673</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>36.5826895796513</v>
+        <v>29.98803389522464</v>
       </c>
       <c r="C121" t="n">
-        <v>36.69115099396885</v>
+        <v>29.99292460629379</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1084614143175457</v>
+        <v>-0.004890711069148068</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>36.58679097950031</v>
+        <v>29.98822709828504</v>
       </c>
       <c r="C122" t="n">
-        <v>36.65610059000336</v>
+        <v>30.02315171247868</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.06930961050305484</v>
+        <v>-0.03492461419364545</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>36.5870013545727</v>
+        <v>29.99428081292605</v>
       </c>
       <c r="C123" t="n">
-        <v>36.6617648452324</v>
+        <v>30.06271413936623</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.07476349065969856</v>
+        <v>-0.06843332644018574</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>36.59803192885622</v>
+        <v>30.00839913664742</v>
       </c>
       <c r="C124" t="n">
-        <v>36.60100320532965</v>
+        <v>30.08270199432297</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.002971276473424211</v>
+        <v>-0.07430285767555844</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.61620921483667</v>
+        <v>30.01673527319034</v>
       </c>
       <c r="C125" t="n">
-        <v>36.66956918706841</v>
+        <v>30.00919872407929</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.05335997223173905</v>
+        <v>0.007536549111048174</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>36.62383741392625</v>
+        <v>30.02323426439319</v>
       </c>
       <c r="C126" t="n">
-        <v>36.66608211346492</v>
+        <v>30.08646539909724</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.04224469953867782</v>
+        <v>-0.06323113470405772</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>36.64806796641293</v>
+        <v>30.05604583924475</v>
       </c>
       <c r="C127" t="n">
-        <v>36.67621093281564</v>
+        <v>30.06912404569286</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.02814296640271152</v>
+        <v>-0.01307820644811031</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>36.67091108634339</v>
+        <v>30.06269159770684</v>
       </c>
       <c r="C128" t="n">
-        <v>36.7049244371517</v>
+        <v>30.06917879509322</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.03401335080830137</v>
+        <v>-0.006487197386377375</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>37.75037063665874</v>
+        <v>30.06380989872148</v>
       </c>
       <c r="C129" t="n">
-        <v>37.89741275477017</v>
+        <v>30.0774236609764</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.147042118111429</v>
+        <v>-0.01361376225492705</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>37.78408074385771</v>
+        <v>30.28059707685348</v>
       </c>
       <c r="C130" t="n">
-        <v>37.84446519864321</v>
+        <v>30.06145800710485</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.06038445478550614</v>
+        <v>0.219139069748632</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>37.80072703275377</v>
+        <v>30.7953728882719</v>
       </c>
       <c r="C131" t="n">
-        <v>37.91155404040737</v>
+        <v>30.88962731723347</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1108270076536044</v>
+        <v>-0.09425442896156966</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>37.80570711284575</v>
+        <v>30.81348953269186</v>
       </c>
       <c r="C132" t="n">
-        <v>37.91672943034069</v>
+        <v>30.90811511224684</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1110223174949496</v>
+        <v>-0.09462557955498241</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>37.80858237625799</v>
+        <v>30.82355134322225</v>
       </c>
       <c r="C133" t="n">
-        <v>37.84834870862503</v>
+        <v>30.83174786084873</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.03976633236703719</v>
+        <v>-0.008196517626476663</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>37.81401157360828</v>
+        <v>30.86234889898957</v>
       </c>
       <c r="C134" t="n">
-        <v>37.81893935236204</v>
+        <v>30.88735801636876</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.004927778753767598</v>
+        <v>-0.02500911737919509</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>37.81930347287175</v>
+        <v>30.89166133777783</v>
       </c>
       <c r="C135" t="n">
-        <v>37.89663628409095</v>
+        <v>30.93755313084635</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.07733281121919333</v>
+        <v>-0.04589179306852742</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>37.8248245791065</v>
+        <v>32.95984153634193</v>
       </c>
       <c r="C136" t="n">
-        <v>37.894561989768</v>
+        <v>32.99317544063543</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.06973741066149586</v>
+        <v>-0.03333390429350658</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>37.82758137671723</v>
+        <v>32.97991234530457</v>
       </c>
       <c r="C137" t="n">
-        <v>37.8888935788766</v>
+        <v>33.0467180064135</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.06131220215937105</v>
+        <v>-0.06680566110892983</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>37.85570492787681</v>
+        <v>32.98090156856769</v>
       </c>
       <c r="C138" t="n">
-        <v>37.92357224835825</v>
+        <v>32.98965119927493</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.06786732048144017</v>
+        <v>-0.008749630707242773</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>37.88056039297258</v>
+        <v>33.00723785528308</v>
       </c>
       <c r="C139" t="n">
-        <v>37.91866388784673</v>
+        <v>33.08530988404716</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.038103494874143</v>
+        <v>-0.07807202876408326</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>38.00996562363951</v>
+        <v>33.016007188343</v>
       </c>
       <c r="C140" t="n">
-        <v>37.92214110107985</v>
+        <v>33.04958041540818</v>
       </c>
       <c r="D140" t="n">
-        <v>0.08782452255965723</v>
+        <v>-0.03357322706518318</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>38.13411798582734</v>
+        <v>33.02233760094551</v>
       </c>
       <c r="C141" t="n">
-        <v>37.92170510047518</v>
+        <v>33.09779750824471</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2124128853521654</v>
+        <v>-0.07545990729919794</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>38.16426955661621</v>
+        <v>33.03465305485462</v>
       </c>
       <c r="C142" t="n">
-        <v>38.2117583692277</v>
+        <v>33.03882301199433</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.04748881261149052</v>
+        <v>-0.004169957139708913</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>38.20012980151216</v>
+        <v>33.0361917511356</v>
       </c>
       <c r="C143" t="n">
-        <v>38.27754373187828</v>
+        <v>33.06790953275155</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0774139303661201</v>
+        <v>-0.03171778161595284</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>38.21954257501335</v>
+        <v>33.0397082186301</v>
       </c>
       <c r="C144" t="n">
-        <v>38.30218548457201</v>
+        <v>33.0833487351906</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.08264290955865761</v>
+        <v>-0.04364051656049384</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>38.23038064755483</v>
+        <v>33.04508579616338</v>
       </c>
       <c r="C145" t="n">
-        <v>38.23574493728908</v>
+        <v>33.05752689881222</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.005364289734252736</v>
+        <v>-0.01244110264883602</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>38.2449034130773</v>
+        <v>37.08625268878808</v>
       </c>
       <c r="C146" t="n">
-        <v>38.28263559624364</v>
+        <v>37.18444842136405</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.03773218316633375</v>
+        <v>-0.09819573257597369</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>38.25225088538031</v>
+        <v>37.09511969932957</v>
       </c>
       <c r="C147" t="n">
-        <v>38.25470375884471</v>
+        <v>37.18612290002098</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.002452873464399374</v>
+        <v>-0.09100320069141077</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>38.25383141646432</v>
+        <v>37.11647286703041</v>
       </c>
       <c r="C148" t="n">
-        <v>38.29360138769758</v>
+        <v>37.20185905433815</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.03976997123325532</v>
+        <v>-0.08538618730774061</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>38.25855904567594</v>
+        <v>37.11999103682727</v>
       </c>
       <c r="C149" t="n">
-        <v>38.30973065721375</v>
+        <v>37.17362984352054</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.05117161153781069</v>
+        <v>-0.05363880669327159</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>38.26230589827194</v>
+        <v>37.12726734187783</v>
       </c>
       <c r="C150" t="n">
-        <v>37.92654033580774</v>
+        <v>37.18206128509852</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3357655624641964</v>
+        <v>-0.05479394322069453</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>38.27278820881332</v>
+        <v>37.13623917244523</v>
       </c>
       <c r="C151" t="n">
-        <v>38.27759878982111</v>
+        <v>37.2288638708857</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.004810581007781423</v>
+        <v>-0.09262469844046706</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>38.27727192850366</v>
+        <v>37.13790050049601</v>
       </c>
       <c r="C152" t="n">
-        <v>38.28620134282476</v>
+        <v>37.23762599316998</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.008929414321102058</v>
+        <v>-0.09972549267397568</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>38.29837156935363</v>
+        <v>37.14515559319315</v>
       </c>
       <c r="C153" t="n">
-        <v>38.3060398643884</v>
+        <v>37.22959974355013</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.007668295034775952</v>
+        <v>-0.08444415035697972</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>38.31909686511091</v>
+        <v>37.16484710338659</v>
       </c>
       <c r="C154" t="n">
-        <v>38.32833523735871</v>
+        <v>37.17664650836867</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.009238372247800442</v>
+        <v>-0.01179940498207799</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>38.49938674769852</v>
+        <v>37.19339391689036</v>
       </c>
       <c r="C155" t="n">
-        <v>38.29903578338294</v>
+        <v>37.19892667033154</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2003509643155752</v>
+        <v>-0.005532753441173099</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>39.60464819810194</v>
+        <v>37.20014397446944</v>
       </c>
       <c r="C156" t="n">
-        <v>39.68346957597623</v>
+        <v>37.22147858862105</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.07882137787428434</v>
+        <v>-0.02133461415161264</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>39.62018605320203</v>
+        <v>37.20461629652705</v>
       </c>
       <c r="C157" t="n">
-        <v>39.63676189952186</v>
+        <v>37.20985907358869</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.01657584631983156</v>
+        <v>-0.005242777061639003</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>39.62296659221027</v>
+        <v>37.21565880933397</v>
       </c>
       <c r="C158" t="n">
-        <v>39.6771195453781</v>
+        <v>37.24770522922024</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.05415295316783642</v>
+        <v>-0.03204641988626378</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>39.62997647718169</v>
+        <v>37.23374624836553</v>
       </c>
       <c r="C159" t="n">
-        <v>39.68273888041414</v>
+        <v>37.24298489228278</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.05276240323244963</v>
+        <v>-0.009238643917250045</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>39.68681631769064</v>
+        <v>37.23377373676358</v>
       </c>
       <c r="C160" t="n">
-        <v>39.70482718626062</v>
+        <v>37.24284557396199</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.01801086856998779</v>
+        <v>-0.009071837198405319</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>39.69027174384866</v>
+        <v>40.03003955315796</v>
       </c>
       <c r="C161" t="n">
-        <v>39.73210303243294</v>
+        <v>40.18618293606947</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.04183128858427665</v>
+        <v>-0.1561433829115089</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>39.70545957591094</v>
+        <v>40.05581568340984</v>
       </c>
       <c r="C162" t="n">
-        <v>39.74767586664976</v>
+        <v>40.18211594206559</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.04221629073882838</v>
+        <v>-0.1263002586557533</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>39.74425508952714</v>
+        <v>40.07063489588804</v>
       </c>
       <c r="C163" t="n">
-        <v>39.74697769614572</v>
+        <v>40.17990497406214</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.002722606618576151</v>
+        <v>-0.1092700781740987</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>40.05940005778395</v>
+        <v>40.09021951064926</v>
       </c>
       <c r="C164" t="n">
-        <v>40.11330707148998</v>
+        <v>40.18309608845382</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.05390701370603779</v>
+        <v>-0.09287657780456726</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>40.06783851499802</v>
+        <v>40.10373144359874</v>
       </c>
       <c r="C165" t="n">
-        <v>40.21983991518572</v>
+        <v>40.12355713042062</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.152001400187693</v>
+        <v>-0.01982568682188202</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>40.07281094820384</v>
+        <v>40.119265307778</v>
       </c>
       <c r="C166" t="n">
-        <v>40.1960491874983</v>
+        <v>40.1322960819212</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1232382392944587</v>
+        <v>-0.01303077414320342</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>40.07990411689417</v>
+        <v>40.12127400056708</v>
       </c>
       <c r="C167" t="n">
-        <v>40.1503097846462</v>
+        <v>40.1467625109613</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.07040566775202706</v>
+        <v>-0.02548851039422573</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>40.09455906520213</v>
+        <v>40.12682068245675</v>
       </c>
       <c r="C168" t="n">
-        <v>40.1598925016522</v>
+        <v>40.13522040085407</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.06533343645006795</v>
+        <v>-0.008399718397328115</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>40.09536307745681</v>
+        <v>40.14104887767049</v>
       </c>
       <c r="C169" t="n">
-        <v>40.14535986743044</v>
+        <v>40.16933950668386</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.04999678997362622</v>
+        <v>-0.02829062901336954</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>40.11385135062306</v>
+        <v>45.92764791129432</v>
       </c>
       <c r="C170" t="n">
-        <v>40.16601742287035</v>
+        <v>46.02910247217373</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.05216607224729586</v>
+        <v>-0.1014545608794108</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>40.11789189104417</v>
+        <v>45.93531830846093</v>
       </c>
       <c r="C171" t="n">
-        <v>40.16367791797212</v>
+        <v>45.94295409711825</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.04578602692794931</v>
+        <v>-0.007635788657324838</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>40.12139693780676</v>
+        <v>45.94020946422788</v>
       </c>
       <c r="C172" t="n">
-        <v>40.18834503693023</v>
+        <v>46.03276647937629</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.0669480991234721</v>
+        <v>-0.09255701514840808</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>40.12187383033979</v>
+        <v>45.9439650860876</v>
       </c>
       <c r="C173" t="n">
-        <v>40.13773763059006</v>
+        <v>46.01572673072265</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.01586380025027267</v>
+        <v>-0.0717616446350533</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>40.13436599149606</v>
+        <v>45.94550044434466</v>
       </c>
       <c r="C174" t="n">
-        <v>40.16811060687164</v>
+        <v>46.07430035562053</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.03374461537558204</v>
+        <v>-0.1287999112758698</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>40.16606314583073</v>
+        <v>45.9640584696226</v>
       </c>
       <c r="C175" t="n">
-        <v>40.20606641329019</v>
+        <v>46.03911804730577</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.04000326745946126</v>
+        <v>-0.07505957768317018</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>40.18797117150226</v>
+        <v>45.98024118829007</v>
       </c>
       <c r="C176" t="n">
-        <v>40.19480367047197</v>
+        <v>46.06939001210278</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.006832498969707501</v>
+        <v>-0.08914882381270672</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>40.2164497189037</v>
+        <v>45.98321660517989</v>
       </c>
       <c r="C177" t="n">
-        <v>40.17827241773347</v>
+        <v>46.04669114927703</v>
       </c>
       <c r="D177" t="n">
-        <v>0.03817730117022933</v>
+        <v>-0.06347454409714004</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>45.31962444879742</v>
+        <v>45.99533618461071</v>
       </c>
       <c r="C178" t="n">
-        <v>45.45695398436956</v>
+        <v>46.01386338255642</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1373295355721353</v>
+        <v>-0.01852719794570845</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>45.32297879770374</v>
+        <v>45.99785514430344</v>
       </c>
       <c r="C179" t="n">
-        <v>45.40787595687462</v>
+        <v>46.01049278174308</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.08489715917087892</v>
+        <v>-0.01263763743964574</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>45.3294272263254</v>
+        <v>45.999210471476</v>
       </c>
       <c r="C180" t="n">
-        <v>45.37488579056872</v>
+        <v>46.05112025815515</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.04545856424331873</v>
+        <v>-0.05190978667915402</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>45.3343911946388</v>
+        <v>46.31566396750427</v>
       </c>
       <c r="C181" t="n">
-        <v>45.36302980290166</v>
+        <v>46.38206188776432</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.02863860826285958</v>
+        <v>-0.06639792026005154</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>45.33805149958652</v>
+        <v>46.33338277787238</v>
       </c>
       <c r="C182" t="n">
-        <v>45.45232652653539</v>
+        <v>46.35974001263724</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1142750269488673</v>
+        <v>-0.02635723476485907</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>45.34198247221747</v>
+        <v>46.33535157571432</v>
       </c>
       <c r="C183" t="n">
-        <v>45.43151602268727</v>
+        <v>46.42985668098262</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.08953355046980249</v>
+        <v>-0.09450510526830413</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>45.34485669687555</v>
+        <v>46.34311302846162</v>
       </c>
       <c r="C184" t="n">
-        <v>45.45046210699727</v>
+        <v>46.43152995028812</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1056054101217256</v>
+        <v>-0.08841692182650718</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>45.34797336732345</v>
+        <v>46.34684190474442</v>
       </c>
       <c r="C185" t="n">
-        <v>45.45594725111776</v>
+        <v>46.3882788347331</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1079738837943083</v>
+        <v>-0.04143692998867721</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>45.34815230209538</v>
+        <v>46.37158225533651</v>
       </c>
       <c r="C186" t="n">
-        <v>45.35727459083382</v>
+        <v>46.41075208401554</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.009122288738439011</v>
+        <v>-0.03916982867902874</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>45.34995081912873</v>
+        <v>46.37531056361693</v>
       </c>
       <c r="C187" t="n">
-        <v>45.35467417380431</v>
+        <v>46.41820451542493</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.00472335467558338</v>
+        <v>-0.04289395180799715</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>45.35005225723889</v>
+        <v>46.40219842173151</v>
       </c>
       <c r="C188" t="n">
-        <v>45.4178542188239</v>
+        <v>46.44590714036813</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.06780196158501894</v>
+        <v>-0.04370871863662273</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>45.35180965199876</v>
+        <v>46.4127919409221</v>
       </c>
       <c r="C189" t="n">
-        <v>45.37362649274121</v>
+        <v>46.43956745686548</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.02181684074245283</v>
+        <v>-0.02677551594338468</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>45.35704483873255</v>
+        <v>46.42153867357229</v>
       </c>
       <c r="C190" t="n">
-        <v>45.46065952928685</v>
+        <v>46.45388804899945</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.1036146905543021</v>
+        <v>-0.03234937542716665</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>45.36620861185411</v>
+        <v>46.42163940562249</v>
       </c>
       <c r="C191" t="n">
-        <v>45.40386623650222</v>
+        <v>46.4487687564809</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.03765762464810507</v>
+        <v>-0.0271293508584094</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>45.36644426253562</v>
+        <v>46.44270030257281</v>
       </c>
       <c r="C192" t="n">
-        <v>45.40131503803548</v>
+        <v>46.45107185571585</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.0348707754998614</v>
+        <v>-0.008371553143042831</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>45.36901941392001</v>
+        <v>47.36254182844033</v>
       </c>
       <c r="C193" t="n">
-        <v>45.46114486995538</v>
+        <v>47.49162329541146</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.09212545603536171</v>
+        <v>-0.1290814669711366</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>45.37435073537727</v>
+        <v>47.36944841147887</v>
       </c>
       <c r="C194" t="n">
-        <v>45.39351979502683</v>
+        <v>47.40236144320063</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.01916905964956328</v>
+        <v>-0.03291303172175475</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>45.37453073631609</v>
+        <v>47.38862502989287</v>
       </c>
       <c r="C195" t="n">
-        <v>45.45972171396409</v>
+        <v>47.47256401330315</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.08519097764800421</v>
+        <v>-0.0839389834102775</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>45.39494233126668</v>
+        <v>47.42516798438484</v>
       </c>
       <c r="C196" t="n">
-        <v>45.3971414125768</v>
+        <v>47.46711020527319</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.002199081310124029</v>
+        <v>-0.04194222088835886</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>45.41302395429611</v>
+        <v>47.44783414685805</v>
       </c>
       <c r="C197" t="n">
-        <v>45.47799192898984</v>
+        <v>47.487270493681</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.0649679746937295</v>
+        <v>-0.03943634682294572</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>45.42511857104152</v>
+        <v>47.45371029801127</v>
       </c>
       <c r="C198" t="n">
-        <v>45.31775554777386</v>
+        <v>47.47909532013593</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1073630232676521</v>
+        <v>-0.02538502212465232</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>46.97166309963291</v>
+        <v>47.49663147869106</v>
       </c>
       <c r="C199" t="n">
-        <v>47.01021872314777</v>
+        <v>47.50716504940902</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.03855562351485986</v>
+        <v>-0.01053357071795347</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>46.97360437097425</v>
+        <v>47.59897465881214</v>
       </c>
       <c r="C200" t="n">
-        <v>46.99718764682219</v>
+        <v>47.64707722836977</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.0235832758479404</v>
+        <v>-0.04810256955763492</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>46.97666135295011</v>
+        <v>47.64793034891791</v>
       </c>
       <c r="C201" t="n">
-        <v>47.05451455775187</v>
+        <v>47.66210806545589</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.07785320480176239</v>
+        <v>-0.01417771653797928</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>46.97714043846416</v>
+        <v>47.65032278033886</v>
       </c>
       <c r="C202" t="n">
-        <v>47.05131649389893</v>
+        <v>47.76609491695564</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.07417605543476924</v>
+        <v>-0.1157721366167763</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>46.98078007169942</v>
+        <v>47.67111314267925</v>
       </c>
       <c r="C203" t="n">
-        <v>47.07730494418924</v>
+        <v>47.71702007310202</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.09652487248982311</v>
+        <v>-0.04590693042276683</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>46.98467864976756</v>
+        <v>47.69816407800515</v>
       </c>
       <c r="C204" t="n">
-        <v>47.04832518637586</v>
+        <v>47.70985204810092</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.06364653660830299</v>
+        <v>-0.01168797009577105</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>47.00038889974618</v>
+        <v>47.72348767716699</v>
       </c>
       <c r="C205" t="n">
-        <v>47.05239530127603</v>
+        <v>47.74911271863735</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.05200640152985159</v>
+        <v>-0.02562504147036293</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>47.01024874964614</v>
+        <v>47.74608710497314</v>
       </c>
       <c r="C206" t="n">
-        <v>47.04929948691832</v>
+        <v>47.76621464241646</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.03905073727218422</v>
+        <v>-0.02012753744331519</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>51.25702466627467</v>
+        <v>47.76603975647305</v>
       </c>
       <c r="C207" t="n">
-        <v>51.35009659751933</v>
+        <v>47.77025174694926</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.0930719312446513</v>
+        <v>-0.004211990476207461</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>51.26252106249409</v>
+        <v>48.92285456124578</v>
       </c>
       <c r="C208" t="n">
-        <v>51.36279054599721</v>
+        <v>48.99174100586406</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1002694835031122</v>
+        <v>-0.06888644461828619</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>51.28346648856272</v>
+        <v>48.93725897806282</v>
       </c>
       <c r="C209" t="n">
-        <v>51.30044177526419</v>
+        <v>49.01435656196859</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.01697528670146653</v>
+        <v>-0.07709758390576837</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>51.30315763398641</v>
+        <v>48.93927635141855</v>
       </c>
       <c r="C210" t="n">
-        <v>51.30677541207709</v>
+        <v>49.05591782388179</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.00361777809068542</v>
+        <v>-0.1166414724632432</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>51.30627431726452</v>
+        <v>48.94237412532055</v>
       </c>
       <c r="C211" t="n">
-        <v>51.38334913093405</v>
+        <v>49.05632739011239</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.07707481366952607</v>
+        <v>-0.1139532647918315</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>51.32266688917421</v>
+        <v>48.94281774789663</v>
       </c>
       <c r="C212" t="n">
-        <v>51.32443216674287</v>
+        <v>48.99861330755418</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.001765277568665624</v>
+        <v>-0.05579555965754679</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>51.34856054724698</v>
+        <v>48.94931460006047</v>
       </c>
       <c r="C213" t="n">
-        <v>51.39344150117557</v>
+        <v>48.9799784383763</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.04488095392859037</v>
+        <v>-0.03066383831583153</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>51.35068606429642</v>
+        <v>48.96588411335558</v>
       </c>
       <c r="C214" t="n">
-        <v>51.37585897474359</v>
+        <v>49.05557999595047</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.02517291044716785</v>
+        <v>-0.08969588259488859</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>51.36213946315349</v>
+        <v>48.97897821566683</v>
       </c>
       <c r="C215" t="n">
-        <v>51.39054549778471</v>
+        <v>49.04183343014639</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.02840603463122449</v>
+        <v>-0.06285521447956199</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>51.37009805393173</v>
+        <v>48.99529462817007</v>
       </c>
       <c r="C216" t="n">
-        <v>51.40712864733679</v>
+        <v>49.01800029604698</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.03703059340505632</v>
+        <v>-0.02270566787690598</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>51.3824602627679</v>
+        <v>48.99620907526921</v>
       </c>
       <c r="C217" t="n">
-        <v>51.40880908485894</v>
+        <v>48.97891604243799</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.0263488220910375</v>
+        <v>0.01729303283122618</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>51.38926911418316</v>
+        <v>49.01139337192161</v>
       </c>
       <c r="C218" t="n">
-        <v>51.40630739604403</v>
+        <v>49.03325737624824</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.01703828186086298</v>
+        <v>-0.02186400432662339</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>51.66477618272035</v>
+        <v>49.01755542369759</v>
       </c>
       <c r="C219" t="n">
-        <v>51.71693825918707</v>
+        <v>49.01125782679324</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.05216207646672189</v>
+        <v>0.006297596904353497</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>51.6707271288121</v>
+        <v>53.63375660841172</v>
       </c>
       <c r="C220" t="n">
-        <v>51.74526368930822</v>
+        <v>53.68715439450725</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.07453656049612079</v>
+        <v>-0.05339778609553036</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>51.68456344050783</v>
+        <v>53.65304382075674</v>
       </c>
       <c r="C221" t="n">
-        <v>51.69449613376175</v>
+        <v>53.75973619542137</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.009932693253922764</v>
+        <v>-0.1066923746646253</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>51.68472906233525</v>
+        <v>53.69339482583825</v>
       </c>
       <c r="C222" t="n">
-        <v>51.75426146545261</v>
+        <v>53.74957451232858</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.06953240311735698</v>
+        <v>-0.05617968649033145</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>51.69740523260749</v>
+        <v>53.70236753647013</v>
       </c>
       <c r="C223" t="n">
-        <v>51.80289823152262</v>
+        <v>53.76990394094362</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1054929989151319</v>
+        <v>-0.06753640447349341</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>51.70775269846108</v>
+        <v>53.71277718045877</v>
       </c>
       <c r="C224" t="n">
-        <v>51.7578342245997</v>
+        <v>53.76265018731041</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.05008152613862649</v>
+        <v>-0.04987300685163376</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>51.71612523741207</v>
+        <v>53.71757564746959</v>
       </c>
       <c r="C225" t="n">
-        <v>51.7952379480698</v>
+        <v>53.79108132522229</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.07911271065773917</v>
+        <v>-0.07350567775270633</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>51.7301796615076</v>
+        <v>57.5856174576015</v>
       </c>
       <c r="C226" t="n">
-        <v>51.75451683187307</v>
+        <v>57.6946761000441</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.02433717036547023</v>
+        <v>-0.1090586424425979</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>51.74257156509154</v>
+        <v>57.64518368450346</v>
       </c>
       <c r="C227" t="n">
-        <v>51.77883176117844</v>
+        <v>57.7258422174323</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.03626019608690711</v>
+        <v>-0.08065853292883673</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>51.74869039653438</v>
+        <v>57.65171110015762</v>
       </c>
       <c r="C228" t="n">
-        <v>51.81271515798802</v>
+        <v>57.65791025474884</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.06402476145363778</v>
+        <v>-0.006199154591222111</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>51.75134867074861</v>
+        <v>57.65549421162894</v>
       </c>
       <c r="C229" t="n">
-        <v>51.77667681910601</v>
+        <v>57.66624020428248</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.02532814835739572</v>
+        <v>-0.01074599265353982</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>51.77698647405525</v>
+        <v>57.66413290915771</v>
       </c>
       <c r="C230" t="n">
-        <v>51.81610132923031</v>
+        <v>57.70335208022835</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.03911485517505753</v>
+        <v>-0.03921917107064132</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>51.79043124744936</v>
+        <v>59.24517798634497</v>
       </c>
       <c r="C231" t="n">
-        <v>51.82196768150055</v>
+        <v>59.31401385858664</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.03153643405118345</v>
+        <v>-0.06883587224167087</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>52.93482306946496</v>
+        <v>59.26630018229429</v>
       </c>
       <c r="C232" t="n">
-        <v>52.9510441318476</v>
+        <v>59.27564915708622</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.01622106238264109</v>
+        <v>-0.009348974791933529</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>52.95466879459281</v>
+        <v>59.26967134800802</v>
       </c>
       <c r="C233" t="n">
-        <v>52.98113708097338</v>
+        <v>59.3002694022538</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.0264682863805632</v>
+        <v>-0.03059805424578599</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>52.96020005631929</v>
+        <v>59.27408647900501</v>
       </c>
       <c r="C234" t="n">
-        <v>52.97831541780386</v>
+        <v>59.27632225193573</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.01811536148456838</v>
+        <v>-0.002235772930724522</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>52.96110354786043</v>
+        <v>59.3099960670133</v>
       </c>
       <c r="C235" t="n">
-        <v>53.06377596075887</v>
+        <v>59.37988786890725</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1026724128984355</v>
+        <v>-0.06989180189394517</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>52.9676767114129</v>
+        <v>59.34371880953033</v>
       </c>
       <c r="C236" t="n">
-        <v>53.04684073801967</v>
+        <v>59.34984630282066</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.0791640266067688</v>
+        <v>-0.0061274932903288</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>52.97600653326135</v>
+        <v>59.34830466554237</v>
       </c>
       <c r="C237" t="n">
-        <v>53.0115582729489</v>
+        <v>59.35617532052859</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.03555173968754843</v>
+        <v>-0.00787065498621331</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>52.98753699468826</v>
+        <v>59.3557282230169</v>
       </c>
       <c r="C238" t="n">
-        <v>53.00825518095746</v>
+        <v>59.40283193624964</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.02071818626920674</v>
+        <v>-0.04710371323273677</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>53.00058710572282</v>
+        <v>59.35990189299377</v>
       </c>
       <c r="C239" t="n">
-        <v>53.02577200513895</v>
+        <v>59.39059848581412</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.02518489941613211</v>
+        <v>-0.0306965928203482</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>53.01273760244182</v>
+        <v>59.3724752054211</v>
       </c>
       <c r="C240" t="n">
-        <v>53.08447325024134</v>
+        <v>59.37890791643839</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.07173564779952812</v>
+        <v>-0.006432711017289705</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>53.02171660069833</v>
+        <v>59.37483394056351</v>
       </c>
       <c r="C241" t="n">
-        <v>53.05769494469529</v>
+        <v>59.37582046350264</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.03597834399695188</v>
+        <v>-0.0009865229391294861</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>53.02756261824548</v>
+        <v>59.39805269143812</v>
       </c>
       <c r="C242" t="n">
-        <v>53.06932267348853</v>
+        <v>59.40007400377563</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.04176005524305282</v>
+        <v>-0.002021312337511461</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>53.04787799326344</v>
+        <v>64.61152579221827</v>
       </c>
       <c r="C243" t="n">
-        <v>53.05078341138838</v>
+        <v>64.64285930230612</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.002905418124939274</v>
+        <v>-0.03133351008784757</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>53.14939410699189</v>
+        <v>64.66210778980349</v>
       </c>
       <c r="C244" t="n">
-        <v>53.07438612894633</v>
+        <v>64.70925834936837</v>
       </c>
       <c r="D244" t="n">
-        <v>0.07500797804556214</v>
+        <v>-0.04715055956488357</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>53.274384191543</v>
+        <v>64.67098553792275</v>
       </c>
       <c r="C245" t="n">
-        <v>53.07657667861675</v>
+        <v>64.71932146259201</v>
       </c>
       <c r="D245" t="n">
-        <v>0.1978075129262535</v>
+        <v>-0.04833592466926007</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>54.88625635498689</v>
+        <v>64.67439818353725</v>
       </c>
       <c r="C246" t="n">
-        <v>54.95958324532325</v>
+        <v>64.71193199644141</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.07332689033636086</v>
+        <v>-0.03753381290415803</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>54.91505182656207</v>
+        <v>64.6798495146782</v>
       </c>
       <c r="C247" t="n">
-        <v>54.96392329712414</v>
+        <v>64.7257269315875</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.04887147056206942</v>
+        <v>-0.04587741690930613</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>54.93643059214077</v>
+        <v>64.6805957148123</v>
       </c>
       <c r="C248" t="n">
-        <v>54.99090262235355</v>
+        <v>64.71689988184795</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.05447203021277858</v>
+        <v>-0.03630416703565231</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>54.97784122540458</v>
+        <v>64.68563408879108</v>
       </c>
       <c r="C249" t="n">
-        <v>55.04545665957274</v>
+        <v>64.71901977482898</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.06761543416816096</v>
+        <v>-0.03338568603790293</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>54.9848774808002</v>
+        <v>64.69382474058042</v>
       </c>
       <c r="C250" t="n">
-        <v>55.05049014050361</v>
+        <v>64.7079763288385</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.06561265970340457</v>
+        <v>-0.01415158825807339</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>54.98801161142271</v>
+        <v>64.72094415227404</v>
       </c>
       <c r="C251" t="n">
-        <v>55.04457840187385</v>
+        <v>64.7383157626613</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.05656679045113577</v>
+        <v>-0.01737161038725787</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>54.98801213073206</v>
+        <v>64.72540003194055</v>
       </c>
       <c r="C252" t="n">
-        <v>55.04822499403057</v>
+        <v>64.73526488499633</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.06021286329850994</v>
+        <v>-0.009864853055773892</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>54.99058841113776</v>
+        <v>65.74618590916008</v>
       </c>
       <c r="C253" t="n">
-        <v>55.01672453810703</v>
+        <v>65.81497003839276</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.02613612696926992</v>
+        <v>-0.06878412923268229</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>54.99298199611454</v>
+        <v>65.77068946537128</v>
       </c>
       <c r="C254" t="n">
-        <v>55.03680830370968</v>
+        <v>65.8335856253665</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.04382630759514683</v>
+        <v>-0.06289615999521914</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>55.00081349778213</v>
+        <v>65.78279595490051</v>
       </c>
       <c r="C255" t="n">
-        <v>55.05471772115585</v>
+        <v>65.86963209838544</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.05390422337372769</v>
+        <v>-0.08683614348493052</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>55.9453059356588</v>
+        <v>65.79138770878583</v>
       </c>
       <c r="C256" t="n">
-        <v>55.97693353219173</v>
+        <v>65.85247155268712</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.03162759653292824</v>
+        <v>-0.06108384390128663</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>55.96672774380934</v>
+        <v>65.80473300696409</v>
       </c>
       <c r="C257" t="n">
-        <v>56.05537244053978</v>
+        <v>65.85464781546793</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.08864469673044795</v>
+        <v>-0.04991480850384278</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>55.97319148824823</v>
+        <v>65.84062020288948</v>
       </c>
       <c r="C258" t="n">
-        <v>56.0355984185365</v>
+        <v>65.86306519539227</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.06240693028827593</v>
+        <v>-0.02244499250278409</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>55.97638642040747</v>
+        <v>65.84377842004869</v>
       </c>
       <c r="C259" t="n">
-        <v>56.0102792485155</v>
+        <v>65.87753748390661</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.03389282810803707</v>
+        <v>-0.03375906385791438</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>55.97716479268249</v>
+        <v>65.84537117119686</v>
       </c>
       <c r="C260" t="n">
-        <v>56.06652403486036</v>
+        <v>65.86348019889095</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.08935924217787061</v>
+        <v>-0.01810902769409495</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>55.9788105219906</v>
+        <v>65.85024789733262</v>
       </c>
       <c r="C261" t="n">
-        <v>56.0008376280276</v>
+        <v>65.88016933256903</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.02202710603700098</v>
+        <v>-0.02992143523640323</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>55.98201785864566</v>
+        <v>65.85525830080093</v>
       </c>
       <c r="C262" t="n">
-        <v>56.04685132469985</v>
+        <v>65.87236754820692</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.06483346605418916</v>
+        <v>-0.01710924740599751</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>56.00676734906413</v>
+        <v>65.85752268844475</v>
       </c>
       <c r="C263" t="n">
-        <v>56.06553580351164</v>
+        <v>65.87132102212173</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.05876845444750245</v>
+        <v>-0.0137983336769878</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>56.05386974746752</v>
+        <v>65.86281009291226</v>
       </c>
       <c r="C264" t="n">
-        <v>56.06280524802911</v>
+        <v>65.87216320207772</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.008935500561591425</v>
+        <v>-0.009353109165459728</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>59.03759727558356</v>
+        <v>65.86310290447865</v>
       </c>
       <c r="C265" t="n">
-        <v>59.1188149221253</v>
+        <v>65.8901901319055</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.08121764654173802</v>
+        <v>-0.02708722742684699</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>59.0700200083946</v>
+        <v>65.87584455926761</v>
       </c>
       <c r="C266" t="n">
-        <v>59.20275473540828</v>
+        <v>65.89169390443762</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.1327347270136769</v>
+        <v>-0.01584934517001102</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>59.08986009361085</v>
+        <v>66.22405749915436</v>
       </c>
       <c r="C267" t="n">
-        <v>59.1288074059031</v>
+        <v>65.83863239132363</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.03894731229225101</v>
+        <v>0.3854251078307271</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>59.09627612291546</v>
+        <v>75.37499328217935</v>
       </c>
       <c r="C268" t="n">
-        <v>59.16200229350142</v>
+        <v>75.4685279880233</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.06572617058596109</v>
+        <v>-0.09353470584395041</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>59.13308795544132</v>
+        <v>75.37563151942035</v>
       </c>
       <c r="C269" t="n">
-        <v>59.16091023077219</v>
+        <v>75.46499367304466</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.02782227533086967</v>
+        <v>-0.08936215362430744</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>59.15250284717704</v>
+        <v>75.37564966860016</v>
       </c>
       <c r="C270" t="n">
-        <v>59.17663630553181</v>
+        <v>75.43009863175368</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.02413345835476832</v>
+        <v>-0.05444896315351855</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>60.35814900080355</v>
+        <v>75.42241765154037</v>
       </c>
       <c r="C271" t="n">
-        <v>60.36063335068366</v>
+        <v>75.49330074723601</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.002484349880113257</v>
+        <v>-0.07088309569563478</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>60.36268899388956</v>
+        <v>75.4463141570965</v>
       </c>
       <c r="C272" t="n">
-        <v>60.4457374331951</v>
+        <v>75.46978438276508</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.08304843930553574</v>
+        <v>-0.02347022566858925</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>60.36847018574099</v>
+        <v>75.4488986609328</v>
       </c>
       <c r="C273" t="n">
-        <v>60.48008117638633</v>
+        <v>75.47978316870469</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.1116109906453389</v>
+        <v>-0.03088450777188712</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>60.37392538352602</v>
+        <v>75.45606686924326</v>
       </c>
       <c r="C274" t="n">
-        <v>60.54683316182461</v>
+        <v>75.50880387184742</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.1729077782985868</v>
+        <v>-0.05273700260416092</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>60.38185740846284</v>
+        <v>75.46165357049408</v>
       </c>
       <c r="C275" t="n">
-        <v>60.48224333973972</v>
+        <v>75.49290857674617</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.1003859312768753</v>
+        <v>-0.03125500625209554</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>60.38434160268523</v>
+        <v>75.4653227690773</v>
       </c>
       <c r="C276" t="n">
-        <v>60.39184204665089</v>
+        <v>75.47533644037253</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.007500443965660963</v>
+        <v>-0.01001367129522635</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>60.38972752896835</v>
+        <v>85.12357257202656</v>
       </c>
       <c r="C277" t="n">
-        <v>60.52122509973565</v>
+        <v>85.27066636711012</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.1314975707673014</v>
+        <v>-0.1470937950835634</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>60.40699815954118</v>
+        <v>85.15328050857025</v>
       </c>
       <c r="C278" t="n">
-        <v>60.43110958168344</v>
+        <v>85.28835775255473</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.02411142214225492</v>
+        <v>-0.1350772439844832</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>60.40974741279187</v>
+        <v>85.15702087611051</v>
       </c>
       <c r="C279" t="n">
-        <v>60.53018645682383</v>
+        <v>85.23736322905067</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.1204390440319685</v>
+        <v>-0.08034235294016412</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>60.4117534435546</v>
+        <v>85.17121900240853</v>
       </c>
       <c r="C280" t="n">
-        <v>60.41595691289837</v>
+        <v>85.279609507264</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.004203469343764255</v>
+        <v>-0.1083905048554641</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>60.41919251948827</v>
+        <v>85.17130438926068</v>
       </c>
       <c r="C281" t="n">
-        <v>60.44712228507591</v>
+        <v>85.21221170071661</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.02792976558764337</v>
+        <v>-0.04090731145592486</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>60.44003703010603</v>
+        <v>85.21587110707367</v>
       </c>
       <c r="C282" t="n">
-        <v>60.48974223577316</v>
+        <v>85.29627981458785</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.04970520566713077</v>
+        <v>-0.08040870751418083</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>60.44486878403899</v>
+        <v>85.21723166119898</v>
       </c>
       <c r="C283" t="n">
-        <v>60.51351769561342</v>
+        <v>85.24637713645343</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.06864891157443509</v>
+        <v>-0.02914547525445244</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>60.44819878151152</v>
+        <v>85.2320318110918</v>
       </c>
       <c r="C284" t="n">
-        <v>60.49952492534907</v>
+        <v>85.24591992245303</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.05132614383754941</v>
+        <v>-0.0138881113612257</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>60.44969074718075</v>
+        <v>85.23667612902159</v>
       </c>
       <c r="C285" t="n">
-        <v>60.4725780044061</v>
+        <v>85.24041950350578</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.02288725722534934</v>
+        <v>-0.003743374484187711</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>60.45321387129728</v>
+        <v>85.24273833822335</v>
       </c>
       <c r="C286" t="n">
-        <v>60.55400310814021</v>
+        <v>85.27018838889019</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.1007892368429282</v>
+        <v>-0.02745005066684314</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>60.45327055713869</v>
+        <v>85.24553414314222</v>
       </c>
       <c r="C287" t="n">
-        <v>60.54023901123209</v>
+        <v>85.28744334728444</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.0869684540934017</v>
+        <v>-0.04190920414221466</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>60.46070982366053</v>
+        <v>85.25125993561615</v>
       </c>
       <c r="C288" t="n">
-        <v>60.48419320106326</v>
+        <v>85.28829131235062</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.02348337740272655</v>
+        <v>-0.03703137673447543</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>60.47043414051583</v>
+        <v>85.26010245231338</v>
       </c>
       <c r="C289" t="n">
-        <v>60.47729151276707</v>
+        <v>85.26694904837781</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.006857372251246829</v>
+        <v>-0.006846596064434607</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>60.53046000627278</v>
+        <v>85.27482718185162</v>
       </c>
       <c r="C290" t="n">
-        <v>60.55033466851015</v>
+        <v>85.29049687660388</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.01987466223737755</v>
+        <v>-0.01566969475226188</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>60.8594115252696</v>
+        <v>85.37292637345247</v>
       </c>
       <c r="C291" t="n">
-        <v>60.47989001670376</v>
+        <v>85.17464741177857</v>
       </c>
       <c r="D291" t="n">
-        <v>0.3795215085658441</v>
+        <v>0.1982789616739069</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>63.83357045752924</v>
+        <v>85.645250835197</v>
       </c>
       <c r="C292" t="n">
-        <v>63.86440986981289</v>
+        <v>85.65040530010711</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.0308394122836475</v>
+        <v>-0.005154464910106071</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>63.86019000430456</v>
+        <v>85.65564510515382</v>
       </c>
       <c r="C293" t="n">
-        <v>63.88765389443336</v>
+        <v>85.74850088995407</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.02746389012880002</v>
+        <v>-0.09285578480024981</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>63.87874179414072</v>
+        <v>85.65594204000243</v>
       </c>
       <c r="C294" t="n">
-        <v>63.97687218611168</v>
+        <v>85.68675835531548</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.09813039197096884</v>
+        <v>-0.03081631531304652</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>63.88239635485776</v>
+        <v>85.66148243827097</v>
       </c>
       <c r="C295" t="n">
-        <v>63.95943595451765</v>
+        <v>85.68489990345404</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.07703959965989071</v>
+        <v>-0.02341746518307275</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>63.88557989387627</v>
+        <v>85.66661241276186</v>
       </c>
       <c r="C296" t="n">
-        <v>63.91190964853529</v>
+        <v>85.70389544374819</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.02632975465901666</v>
+        <v>-0.03728303098633035</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>63.89142485298909</v>
+        <v>85.66880042996105</v>
       </c>
       <c r="C297" t="n">
-        <v>63.96673163128878</v>
+        <v>85.78449822649894</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.07530677829969079</v>
+        <v>-0.1156977965378871</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>63.91371445389736</v>
+        <v>85.67105127041361</v>
       </c>
       <c r="C298" t="n">
-        <v>63.98059393191788</v>
+        <v>85.77721344303393</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.06687947802052463</v>
+        <v>-0.1061621726203157</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>63.94611702837212</v>
+        <v>85.69392840389004</v>
       </c>
       <c r="C299" t="n">
-        <v>63.95491290804824</v>
+        <v>85.70100802526382</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.008795879676121388</v>
+        <v>-0.00707962137377649</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>67.31670495446112</v>
+        <v>85.69700203951631</v>
       </c>
       <c r="C300" t="n">
-        <v>67.46831526909193</v>
+        <v>85.77488748676252</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.1516103146308154</v>
+        <v>-0.07788544724621715</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>67.35564742353668</v>
+        <v>85.72212293717298</v>
       </c>
       <c r="C301" t="n">
-        <v>67.46319430428271</v>
+        <v>85.77964132490175</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.1075468807460283</v>
+        <v>-0.05751838772876283</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>67.36071198484444</v>
+        <v>85.74070987303446</v>
       </c>
       <c r="C302" t="n">
-        <v>67.36679832714519</v>
+        <v>85.77065368818627</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.00608634230074756</v>
+        <v>-0.02994381515181033</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>67.38991225025352</v>
+        <v>85.78855862214532</v>
       </c>
       <c r="C303" t="n">
-        <v>67.39118299709232</v>
+        <v>85.89137556059077</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.001270746838798686</v>
+        <v>-0.1028169384454571</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>67.420222558189</v>
+        <v>85.81069966058823</v>
       </c>
       <c r="C304" t="n">
-        <v>67.49393166838689</v>
+        <v>85.81541847771443</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.07370911019789617</v>
+        <v>-0.004718817126203589</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>67.48651067631687</v>
+        <v>85.81647281029909</v>
       </c>
       <c r="C305" t="n">
-        <v>67.4918725697956</v>
+        <v>85.92632427859721</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.005361893478735169</v>
+        <v>-0.1098514682981175</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>67.57701649876596</v>
+        <v>85.82516256301031</v>
       </c>
       <c r="C306" t="n">
-        <v>67.71595125666681</v>
+        <v>85.93528980823621</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.1389347579008557</v>
+        <v>-0.1101272452258968</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>67.62352418991478</v>
+        <v>85.83017344606603</v>
       </c>
       <c r="C307" t="n">
-        <v>67.72613619863853</v>
+        <v>85.84113198475573</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.102612008723753</v>
+        <v>-0.01095853868970664</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>67.65610958707778</v>
+        <v>85.83086501781624</v>
       </c>
       <c r="C308" t="n">
-        <v>67.73749818968398</v>
+        <v>85.86654520304437</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.08138860260619651</v>
+        <v>-0.03568018522813077</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>67.66597018444695</v>
+        <v>85.83637290080765</v>
       </c>
       <c r="C309" t="n">
-        <v>67.70770455046542</v>
+        <v>85.88269073166452</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.04173436601847413</v>
+        <v>-0.04631783085687857</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>67.68853024731082</v>
+        <v>85.85940133043033</v>
       </c>
       <c r="C310" t="n">
-        <v>67.75427428163654</v>
+        <v>85.92610234775182</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.06574403432571785</v>
+        <v>-0.06670101732149192</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>67.69813660306339</v>
+        <v>85.86449403494601</v>
       </c>
       <c r="C311" t="n">
-        <v>67.7549908864642</v>
+        <v>85.91631150895691</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.05685428340080989</v>
+        <v>-0.0518174740109032</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>67.72606762796414</v>
+        <v>85.86744711461097</v>
       </c>
       <c r="C312" t="n">
-        <v>67.74690538340782</v>
+        <v>85.9372435622228</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.02083775544367938</v>
+        <v>-0.06979644761183579</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>68.78860997195157</v>
+        <v>85.8891710195962</v>
       </c>
       <c r="C313" t="n">
-        <v>68.90427580094178</v>
+        <v>85.89439478440924</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1156658289902026</v>
+        <v>-0.005223764813038656</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>68.81426452777725</v>
+        <v>85.88957860884184</v>
       </c>
       <c r="C314" t="n">
-        <v>68.90046313377196</v>
+        <v>85.8877812212705</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.08619860599470996</v>
+        <v>0.001797387571343734</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>68.81967980882527</v>
+        <v>85.89809916655912</v>
       </c>
       <c r="C315" t="n">
-        <v>68.82215978484155</v>
+        <v>85.8985922349293</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.002479976016275032</v>
+        <v>-0.0004930683701758198</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>68.82068876946494</v>
+        <v>85.9276477171512</v>
       </c>
       <c r="C316" t="n">
-        <v>68.94299088925446</v>
+        <v>85.92912886774569</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.1223021197895235</v>
+        <v>-0.00148115059448628</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>68.82405499725532</v>
+        <v>85.9330178494029</v>
       </c>
       <c r="C317" t="n">
-        <v>68.94616830878562</v>
+        <v>85.94051720732013</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.122113311530299</v>
+        <v>-0.00749935791722578</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>68.83594777539643</v>
+        <v>87.85764944221084</v>
       </c>
       <c r="C318" t="n">
-        <v>68.86745754050995</v>
+        <v>87.99251574331144</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.03150976511351189</v>
+        <v>-0.134866301100601</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>68.85608009882047</v>
+        <v>87.88058600117751</v>
       </c>
       <c r="C319" t="n">
-        <v>68.85678531350015</v>
+        <v>87.96340069148044</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.0007052146796837633</v>
+        <v>-0.0828146903029392</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>68.87235620165038</v>
+        <v>87.92719624126303</v>
       </c>
       <c r="C320" t="n">
-        <v>68.93841831035033</v>
+        <v>87.9646073239074</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.06606210869995266</v>
+        <v>-0.03741108264436832</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>68.87274762480047</v>
+        <v>87.93785359152756</v>
       </c>
       <c r="C321" t="n">
-        <v>68.92222913240964</v>
+        <v>87.9755296685433</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.04948150760917258</v>
+        <v>-0.03767607701574605</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>68.87721320120437</v>
+        <v>87.94185363883514</v>
       </c>
       <c r="C322" t="n">
-        <v>68.90693220467531</v>
+        <v>87.95967126967501</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.02971900347094447</v>
+        <v>-0.01781763083987187</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>68.91051207969555</v>
+        <v>87.95411631072945</v>
       </c>
       <c r="C323" t="n">
-        <v>68.94933101194239</v>
+        <v>87.95434105303887</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.03881893224684063</v>
+        <v>-0.0002247423094274836</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>68.93235602718872</v>
+        <v>87.9692824248766</v>
       </c>
       <c r="C324" t="n">
-        <v>68.95892981011204</v>
+        <v>87.97229641541698</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.02657378292332169</v>
+        <v>-0.003013990540381428</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>68.94575029180157</v>
+        <v>88.03542851944876</v>
       </c>
       <c r="C325" t="n">
-        <v>68.8586549681134</v>
+        <v>88.05619255418367</v>
       </c>
       <c r="D325" t="n">
-        <v>0.08709532368817463</v>
+        <v>-0.02076403473490984</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>73.46403522459939</v>
+        <v>88.06481455559512</v>
       </c>
       <c r="C326" t="n">
-        <v>73.55193595341369</v>
+        <v>88.12462060092497</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.08790072881430433</v>
+        <v>-0.05980604532985012</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>73.478085536229</v>
+        <v>88.08624775082333</v>
       </c>
       <c r="C327" t="n">
-        <v>73.51091226286751</v>
+        <v>88.1432737067141</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.03282672663850406</v>
+        <v>-0.05702595589076509</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>73.49183746143989</v>
+        <v>88.08805320246168</v>
       </c>
       <c r="C328" t="n">
-        <v>73.58877743727678</v>
+        <v>88.11822426257012</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.0969399758368894</v>
+        <v>-0.03017106010844373</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>73.51524746772918</v>
+        <v>88.09090211044196</v>
       </c>
       <c r="C329" t="n">
-        <v>73.55620850476416</v>
+        <v>88.11760139331891</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.04096103703497533</v>
+        <v>-0.02669928287694745</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>73.51840847070905</v>
+        <v>88.10427269045721</v>
       </c>
       <c r="C330" t="n">
-        <v>73.55426610928434</v>
+        <v>88.1851911535783</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.035857638575294</v>
+        <v>-0.08091846312109396</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>73.52867776989085</v>
+        <v>88.12375292566161</v>
       </c>
       <c r="C331" t="n">
-        <v>73.57115882519265</v>
+        <v>88.17734378972438</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.04248105530180624</v>
+        <v>-0.05359086406276958</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>75.41691785630826</v>
+        <v>88.12855266720163</v>
       </c>
       <c r="C332" t="n">
-        <v>75.48407661658068</v>
+        <v>88.19988194019543</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.06715876027242018</v>
+        <v>-0.07132927299379332</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>75.43184670869749</v>
+        <v>88.17852790498246</v>
       </c>
       <c r="C333" t="n">
-        <v>75.44182417109693</v>
+        <v>88.19253413015709</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.009977462399433534</v>
+        <v>-0.0140062251746258</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>75.43661326374394</v>
+        <v>88.27062691313884</v>
       </c>
       <c r="C334" t="n">
-        <v>75.51043305926653</v>
+        <v>88.39954133310177</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.07381979552259565</v>
+        <v>-0.1289144199629249</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>75.45166332293485</v>
+        <v>88.27465056627715</v>
       </c>
       <c r="C335" t="n">
-        <v>75.50019339077234</v>
+        <v>88.37936405107031</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.04853006783748981</v>
+        <v>-0.1047134847931659</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>75.46358819891063</v>
+        <v>88.31257390316915</v>
       </c>
       <c r="C336" t="n">
-        <v>75.523582786462</v>
+        <v>88.3130205724494</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.05999458755137255</v>
+        <v>-0.0004466692802509442</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>75.46386613899203</v>
+        <v>88.33201037013559</v>
       </c>
       <c r="C337" t="n">
-        <v>75.53436526275688</v>
+        <v>88.38981220094786</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.07049912376484713</v>
+        <v>-0.05780183081226653</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>75.47313860680227</v>
+        <v>88.33728855762055</v>
       </c>
       <c r="C338" t="n">
-        <v>75.53800053114627</v>
+        <v>88.45054441868946</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.06486192434400095</v>
+        <v>-0.1132558610689074</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>75.49129060621642</v>
+        <v>88.34378855794608</v>
       </c>
       <c r="C339" t="n">
-        <v>75.51525338113451</v>
+        <v>88.39213606828358</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.02396277491808974</v>
+        <v>-0.04834751033749285</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>75.49184506565818</v>
+        <v>88.35644029220397</v>
       </c>
       <c r="C340" t="n">
-        <v>75.54820951964231</v>
+        <v>88.38337577530351</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.05636445398413059</v>
+        <v>-0.02693548309953542</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>75.50059353809647</v>
+        <v>88.38671068928755</v>
       </c>
       <c r="C341" t="n">
-        <v>75.54920247529461</v>
+        <v>88.41292238696951</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.0486089371981393</v>
+        <v>-0.02621169768195841</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>75.5133128892755</v>
+        <v>88.3978796017268</v>
       </c>
       <c r="C342" t="n">
-        <v>75.52627514362325</v>
+        <v>88.39791431440771</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.01296225434775522</v>
+        <v>-3.471268091459478e-05</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>75.52504036519404</v>
+        <v>88.40607446086001</v>
       </c>
       <c r="C343" t="n">
-        <v>75.65023782659476</v>
+        <v>88.43917506565393</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.1251974614007167</v>
+        <v>-0.03310060479391552</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>75.53167420850281</v>
+        <v>88.41206086409079</v>
       </c>
       <c r="C344" t="n">
-        <v>75.62093858334306</v>
+        <v>88.43223337285414</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.08926437484025485</v>
+        <v>-0.02017250876335197</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>75.55081706827569</v>
+        <v>88.43886486592343</v>
       </c>
       <c r="C345" t="n">
-        <v>75.63330516685656</v>
+        <v>88.44810977563722</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.08248809858086759</v>
+        <v>-0.009244909713785887</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>75.57012454200026</v>
+        <v>90.97958579748942</v>
       </c>
       <c r="C346" t="n">
-        <v>75.58585507256129</v>
+        <v>91.08289183060353</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.01573053056102935</v>
+        <v>-0.1033060331141087</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>75.6038966611786</v>
+        <v>91.00022088940547</v>
       </c>
       <c r="C347" t="n">
-        <v>75.61377370568401</v>
+        <v>91.13352153354397</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.009877044505415711</v>
+        <v>-0.133300644138501</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>75.60538258426445</v>
+        <v>91.00125131998006</v>
       </c>
       <c r="C348" t="n">
-        <v>75.63772336446642</v>
+        <v>91.09271785764059</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.03234078020197728</v>
+        <v>-0.09146653766053703</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>78.46837022283492</v>
+        <v>91.01862235246583</v>
       </c>
       <c r="C349" t="n">
-        <v>78.58259254144062</v>
+        <v>91.09127702609264</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.1142223186056981</v>
+        <v>-0.07265467362681477</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>78.47274183857802</v>
+        <v>91.02647394799733</v>
       </c>
       <c r="C350" t="n">
-        <v>78.56234124739186</v>
+        <v>91.08769361275286</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.08959940881383943</v>
+        <v>-0.06121966475552654</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>78.48591186594147</v>
+        <v>91.03110510872341</v>
       </c>
       <c r="C351" t="n">
-        <v>78.5122171777484</v>
+        <v>91.1318077296433</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.0263053118069223</v>
+        <v>-0.1007026209198898</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>78.49058923199118</v>
+        <v>91.04105711397838</v>
       </c>
       <c r="C352" t="n">
-        <v>78.50345068678411</v>
+        <v>91.10645604981943</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.012861454792926</v>
+        <v>-0.06539893584104561</v>
       </c>
     </row>
     <row r="353">
@@ -5369,13 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>78.49571702854585</v>
+        <v>91.04601149531371</v>
       </c>
       <c r="C353" t="n">
-        <v>78.57639304793085</v>
+        <v>91.06247308635045</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.08067601938499536</v>
+        <v>-0.01646159103674449</v>
       </c>
     </row>
     <row r="354">
@@ -5383,13 +5383,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>78.51122353524077</v>
+        <v>91.08822889958766</v>
       </c>
       <c r="C354" t="n">
-        <v>78.58781295829618</v>
+        <v>91.09075608813139</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.07658942305540961</v>
+        <v>-0.002527188543723469</v>
       </c>
     </row>
     <row r="355">
@@ -5397,13 +5397,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>78.53392118472586</v>
+        <v>91.09132524646552</v>
       </c>
       <c r="C355" t="n">
-        <v>78.58915982103053</v>
+        <v>91.12513829204818</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.05523863630467929</v>
+        <v>-0.03381304558266152</v>
       </c>
     </row>
     <row r="356">
@@ -5411,13 +5411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>78.54187105960359</v>
+        <v>91.10039844291822</v>
       </c>
       <c r="C356" t="n">
-        <v>78.58559628968015</v>
+        <v>91.1176902693696</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.04372523007656071</v>
+        <v>-0.01729182645138394</v>
       </c>
     </row>
     <row r="357">
@@ -5425,13 +5425,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>78.57855723433738</v>
+        <v>91.10767074536525</v>
       </c>
       <c r="C357" t="n">
-        <v>78.58549066113686</v>
+        <v>91.13056719152078</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.006933426799477616</v>
+        <v>-0.02289644615552788</v>
       </c>
     </row>
     <row r="358">
@@ -5439,13 +5439,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>79.54708021390194</v>
+        <v>94.17033680240499</v>
       </c>
       <c r="C358" t="n">
-        <v>79.61284858031092</v>
+        <v>94.23590609659429</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.06576836640898875</v>
+        <v>-0.06556929418930224</v>
       </c>
     </row>
     <row r="359">
@@ -5453,13 +5453,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>79.57258751313709</v>
+        <v>94.19560505622873</v>
       </c>
       <c r="C359" t="n">
-        <v>79.58562001531429</v>
+        <v>94.21548417870353</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.01303250217719665</v>
+        <v>-0.01987912247480494</v>
       </c>
     </row>
     <row r="360">
@@ -5467,13 +5467,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>79.57828303386654</v>
+        <v>94.20570417867029</v>
       </c>
       <c r="C360" t="n">
-        <v>79.63777285566051</v>
+        <v>94.25246457474182</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.05948982179397433</v>
+        <v>-0.04676039607153371</v>
       </c>
     </row>
     <row r="361">
@@ -5481,13 +5481,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>79.58622544738121</v>
+        <v>94.2066718036514</v>
       </c>
       <c r="C361" t="n">
-        <v>79.62472717860537</v>
+        <v>94.21139890659757</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.03850173122415868</v>
+        <v>-0.004727102946162631</v>
       </c>
     </row>
     <row r="362">
@@ -5495,13 +5495,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>79.58771178234798</v>
+        <v>94.20870695990759</v>
       </c>
       <c r="C362" t="n">
-        <v>79.59859805582224</v>
+        <v>94.23178755501661</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.01088627347425586</v>
+        <v>-0.02308059510902183</v>
       </c>
     </row>
     <row r="363">
@@ -5509,13 +5509,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>79.60388603524298</v>
+        <v>94.21132225538202</v>
       </c>
       <c r="C363" t="n">
-        <v>79.62731841681378</v>
+        <v>94.28803919622143</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.02343238157079952</v>
+        <v>-0.07671694083941816</v>
       </c>
     </row>
     <row r="364">
@@ -5523,13 +5523,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>79.61520677179598</v>
+        <v>94.23799528590941</v>
       </c>
       <c r="C364" t="n">
-        <v>79.62474809469047</v>
+        <v>94.28180906211114</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.009541322894492055</v>
+        <v>-0.04381377620173055</v>
       </c>
     </row>
     <row r="365">
@@ -5537,13 +5537,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>79.62492050142883</v>
+        <v>94.28062225155777</v>
       </c>
       <c r="C365" t="n">
-        <v>79.62828219040352</v>
+        <v>94.28343527890338</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.003361688974692356</v>
+        <v>-0.002813027345609953</v>
       </c>
     </row>
     <row r="366">
@@ -5551,13 +5551,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>79.62575544688229</v>
+        <v>94.29319769335399</v>
       </c>
       <c r="C366" t="n">
-        <v>79.63014549856696</v>
+        <v>94.30560558556431</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.004390051684666219</v>
+        <v>-0.01240789221031946</v>
       </c>
     </row>
     <row r="367">
@@ -5565,13 +5565,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>79.70452081171027</v>
+        <v>94.32138235499608</v>
       </c>
       <c r="C367" t="n">
-        <v>79.58460207985426</v>
+        <v>94.33429183936839</v>
       </c>
       <c r="D367" t="n">
-        <v>0.1199187318560035</v>
+        <v>-0.01290948437231521</v>
       </c>
     </row>
     <row r="368">
@@ -5579,13 +5579,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>80.08297672537765</v>
+        <v>94.32530765262756</v>
       </c>
       <c r="C368" t="n">
-        <v>80.11356827842336</v>
+        <v>94.33394213803183</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.03059155304570993</v>
+        <v>-0.008634485404272141</v>
       </c>
     </row>
     <row r="369">
@@ -5593,13 +5593,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>80.0902588898315</v>
+        <v>94.58427280713279</v>
       </c>
       <c r="C369" t="n">
-        <v>80.11332333761312</v>
+        <v>94.58619210042822</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.02306444778162131</v>
+        <v>-0.001919293295429725</v>
       </c>
     </row>
     <row r="370">
@@ -5607,13 +5607,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>80.09052112708657</v>
+        <v>94.60060571073761</v>
       </c>
       <c r="C370" t="n">
-        <v>80.13079113553867</v>
+        <v>94.66715531583775</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.04027000845209727</v>
+        <v>-0.06654960510013552</v>
       </c>
     </row>
     <row r="371">
@@ -5621,13 +5621,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>80.10607809547818</v>
+        <v>94.60375335535862</v>
       </c>
       <c r="C371" t="n">
-        <v>80.11032723455118</v>
+        <v>94.63327419750348</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.0042491390729964</v>
+        <v>-0.02952084214486206</v>
       </c>
     </row>
     <row r="372">
@@ -5635,13 +5635,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>80.11346199869507</v>
+        <v>94.60659824295524</v>
       </c>
       <c r="C372" t="n">
-        <v>80.1335709852335</v>
+        <v>94.73853134096947</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.02010898653843185</v>
+        <v>-0.1319330980142297</v>
       </c>
     </row>
     <row r="373">
@@ -5649,13 +5649,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>80.1180198246314</v>
+        <v>94.63208783230705</v>
       </c>
       <c r="C373" t="n">
-        <v>80.1184715465493</v>
+        <v>94.73918676870719</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.0004517219178978849</v>
+        <v>-0.1070989364001349</v>
       </c>
     </row>
     <row r="374">
@@ -5663,13 +5663,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>80.12690710983161</v>
+        <v>94.63295713344118</v>
       </c>
       <c r="C374" t="n">
-        <v>80.16201937531088</v>
+        <v>94.74107717147295</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.03511226547927038</v>
+        <v>-0.1081200380317711</v>
       </c>
     </row>
     <row r="375">
@@ -5677,13 +5677,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>80.13240428353285</v>
+        <v>94.63511374305489</v>
       </c>
       <c r="C375" t="n">
-        <v>80.15273703103561</v>
+        <v>94.64962738530298</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.02033274750276348</v>
+        <v>-0.01451364224809026</v>
       </c>
     </row>
     <row r="376">
@@ -5691,13 +5691,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>80.16565234150478</v>
+        <v>94.65392705880805</v>
       </c>
       <c r="C376" t="n">
-        <v>80.17706485681434</v>
+        <v>94.72827668632389</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.01141251530955856</v>
+        <v>-0.07434962751584351</v>
       </c>
     </row>
     <row r="377">
@@ -5705,13 +5705,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>80.21210192401824</v>
+        <v>94.68448916419435</v>
       </c>
       <c r="C377" t="n">
-        <v>80.2786562008521</v>
+        <v>94.68775381360794</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.0665542768338554</v>
+        <v>-0.003264649413594611</v>
       </c>
     </row>
     <row r="378">
@@ -5719,13 +5719,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>80.2672208866601</v>
+        <v>94.69107337992557</v>
       </c>
       <c r="C378" t="n">
-        <v>80.33083102068291</v>
+        <v>94.71413136996472</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.06361013402280946</v>
+        <v>-0.02305799003914899</v>
       </c>
     </row>
     <row r="379">
@@ -5733,13 +5733,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>80.27448529705411</v>
+        <v>94.69663721535323</v>
       </c>
       <c r="C379" t="n">
-        <v>80.32330485278453</v>
+        <v>94.72420735696458</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.04881955573041807</v>
+        <v>-0.02757014161134919</v>
       </c>
     </row>
     <row r="380">
@@ -5747,13 +5747,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>80.27465374906649</v>
+        <v>94.70395738782271</v>
       </c>
       <c r="C380" t="n">
-        <v>80.2777919933842</v>
+        <v>94.7050160770162</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.003138244317710814</v>
+        <v>-0.001058689193484952</v>
       </c>
     </row>
     <row r="381">
@@ -5761,13 +5761,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>80.27944311112347</v>
+        <v>94.73048280478568</v>
       </c>
       <c r="C381" t="n">
-        <v>80.28835709978402</v>
+        <v>94.74739329303119</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.008913988660552263</v>
+        <v>-0.01691048824551444</v>
       </c>
     </row>
     <row r="382">
@@ -5775,13 +5775,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>80.28771067830375</v>
+        <v>94.82911219069406</v>
       </c>
       <c r="C382" t="n">
-        <v>80.35623631144833</v>
+        <v>94.72809702718496</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.06852563314457427</v>
+        <v>0.1010151635091034</v>
       </c>
     </row>
     <row r="383">
@@ -5789,13 +5789,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>80.28846865761318</v>
+        <v>97.85550721571752</v>
       </c>
       <c r="C383" t="n">
-        <v>80.38458306021188</v>
+        <v>97.92714251523253</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.09611440259870108</v>
+        <v>-0.07163529951500891</v>
       </c>
     </row>
     <row r="384">
@@ -5803,13 +5803,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>80.29252729682347</v>
+        <v>97.85596788870205</v>
       </c>
       <c r="C384" t="n">
-        <v>80.32768674968905</v>
+        <v>97.86168297173538</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.03515945286558519</v>
+        <v>-0.005715083033322799</v>
       </c>
     </row>
     <row r="385">
@@ -5817,13 +5817,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>80.30315325371825</v>
+        <v>97.85850623366531</v>
       </c>
       <c r="C385" t="n">
-        <v>80.37099569077125</v>
+        <v>97.89869318171914</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.06784243705300241</v>
+        <v>-0.0401869480538295</v>
       </c>
     </row>
     <row r="386">
@@ -5831,13 +5831,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>80.31863424030279</v>
+        <v>97.87684406739764</v>
       </c>
       <c r="C386" t="n">
-        <v>80.3789360666852</v>
+        <v>97.91967848393243</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.06030182638241399</v>
+        <v>-0.04283441653478803</v>
       </c>
     </row>
     <row r="387">
@@ -5845,13 +5845,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>80.33499779642929</v>
+        <v>97.87907085496245</v>
       </c>
       <c r="C387" t="n">
-        <v>80.37955692739409</v>
+        <v>97.92044779066033</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.04455913096479946</v>
+        <v>-0.04137693569788325</v>
       </c>
     </row>
     <row r="388">
@@ -5859,13 +5859,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>80.34969476790849</v>
+        <v>97.89551198538281</v>
       </c>
       <c r="C388" t="n">
-        <v>80.36540016727801</v>
+        <v>97.90242768480761</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.01570539936952287</v>
+        <v>-0.006915699424794752</v>
       </c>
     </row>
     <row r="389">
@@ -5873,13 +5873,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>80.37470299032255</v>
+        <v>97.90098244955996</v>
       </c>
       <c r="C389" t="n">
-        <v>80.3885788747404</v>
+        <v>97.92734551226052</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.01387588441785681</v>
+        <v>-0.026363062700554</v>
       </c>
     </row>
     <row r="390">
@@ -5887,13 +5887,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>80.43119605292199</v>
+        <v>97.90566614467205</v>
       </c>
       <c r="C390" t="n">
-        <v>80.35790921570397</v>
+        <v>97.92226864490509</v>
       </c>
       <c r="D390" t="n">
-        <v>0.07328683721802065</v>
+        <v>-0.01660250023303433</v>
       </c>
     </row>
     <row r="391">
@@ -5901,13 +5901,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>85.3110946071825</v>
+        <v>97.91910890644894</v>
       </c>
       <c r="C391" t="n">
-        <v>85.36454191451121</v>
+        <v>97.95798810924838</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.05344730732871028</v>
+        <v>-0.03887920279943557</v>
       </c>
     </row>
     <row r="392">
@@ -5915,13 +5915,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>85.33335327519933</v>
+        <v>97.93902478623907</v>
       </c>
       <c r="C392" t="n">
-        <v>85.33657654548716</v>
+        <v>97.96111548843939</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.003223270287833202</v>
+        <v>-0.02209070220031606</v>
       </c>
     </row>
     <row r="393">
@@ -5929,13 +5929,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>85.34197063815876</v>
+        <v>97.96500342139473</v>
       </c>
       <c r="C393" t="n">
-        <v>85.4324317497933</v>
+        <v>97.96891913680267</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.09046111163453929</v>
+        <v>-0.003915715407941889</v>
       </c>
     </row>
     <row r="394">
@@ -5943,13 +5943,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>85.35123845428718</v>
+        <v>97.98587946175755</v>
       </c>
       <c r="C394" t="n">
-        <v>85.36866553885589</v>
+        <v>97.89471156974572</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.01742708456870901</v>
+        <v>0.09116789201182485</v>
       </c>
     </row>
     <row r="395">
@@ -5957,13 +5957,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>85.36378872070958</v>
+        <v>98.61408671904279</v>
       </c>
       <c r="C395" t="n">
-        <v>85.44505454519091</v>
+        <v>98.66802482680401</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.0812658244813349</v>
+        <v>-0.05393810776122621</v>
       </c>
     </row>
     <row r="396">
@@ -5971,13 +5971,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>85.38479438742863</v>
+        <v>98.61912336404575</v>
       </c>
       <c r="C396" t="n">
-        <v>85.40177918924691</v>
+        <v>98.6584006241531</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.01698480181828188</v>
+        <v>-0.03927726010735455</v>
       </c>
     </row>
     <row r="397">
@@ -5985,13 +5985,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>85.41529270790431</v>
+        <v>98.61999805702384</v>
       </c>
       <c r="C397" t="n">
-        <v>85.42242177266665</v>
+        <v>98.75274162432348</v>
       </c>
       <c r="D397" t="n">
-        <v>-0.007129064762338544</v>
+        <v>-0.1327435672996415</v>
       </c>
     </row>
     <row r="398">
@@ -5999,13 +5999,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>87.84266425034865</v>
+        <v>98.6224369014615</v>
       </c>
       <c r="C398" t="n">
-        <v>87.8472647286481</v>
+        <v>98.70331092951565</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.004600478299451538</v>
+        <v>-0.08087402805415422</v>
       </c>
     </row>
     <row r="399">
@@ -6013,13 +6013,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>87.84371963202943</v>
+        <v>98.63042372360158</v>
       </c>
       <c r="C399" t="n">
-        <v>87.95026041479323</v>
+        <v>98.73271180360575</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.1065407827638012</v>
+        <v>-0.1022880800041719</v>
       </c>
     </row>
     <row r="400">
@@ -6027,13 +6027,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>87.86193560101007</v>
+        <v>98.64253897372512</v>
       </c>
       <c r="C400" t="n">
-        <v>87.86597110873282</v>
+        <v>98.70173154376972</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.004035507722747411</v>
+        <v>-0.05919257004460121</v>
       </c>
     </row>
     <row r="401">
@@ -6041,13 +6041,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>87.87012138473352</v>
+        <v>98.66116340608488</v>
       </c>
       <c r="C401" t="n">
-        <v>87.93394469398463</v>
+        <v>98.73716099922144</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.0638233092511058</v>
+        <v>-0.07599759313656307</v>
       </c>
     </row>
     <row r="402">
@@ -6055,13 +6055,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>87.87734069755859</v>
+        <v>98.66247102524758</v>
       </c>
       <c r="C402" t="n">
-        <v>87.94636548456717</v>
+        <v>98.7629956377215</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.06902478700857273</v>
+        <v>-0.1005246124739188</v>
       </c>
     </row>
     <row r="403">
@@ -6069,13 +6069,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>87.87930339425343</v>
+        <v>98.67470499944977</v>
       </c>
       <c r="C403" t="n">
-        <v>87.90682906872321</v>
+        <v>98.68815857793064</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.0275256744697856</v>
+        <v>-0.01345357848086337</v>
       </c>
     </row>
     <row r="404">
@@ -6083,13 +6083,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>87.90168238609436</v>
+        <v>98.6761869287772</v>
       </c>
       <c r="C404" t="n">
-        <v>87.95399990099634</v>
+        <v>98.69953563190336</v>
       </c>
       <c r="D404" t="n">
-        <v>-0.05231751490197212</v>
+        <v>-0.02334870312616033</v>
       </c>
     </row>
     <row r="405">
@@ -6097,13 +6097,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>87.90968253324303</v>
+        <v>98.69259098860751</v>
       </c>
       <c r="C405" t="n">
-        <v>87.92229075185425</v>
+        <v>98.73603503047072</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.01260821861121997</v>
+        <v>-0.04344404186321071</v>
       </c>
     </row>
     <row r="406">
@@ -6111,13 +6111,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>87.91007802077335</v>
+        <v>98.69642961613013</v>
       </c>
       <c r="C406" t="n">
-        <v>87.94468212313812</v>
+        <v>98.7128774282816</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.03460410236476719</v>
+        <v>-0.01644781215146907</v>
       </c>
     </row>
     <row r="407">
@@ -6125,13 +6125,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>87.91178354408129</v>
+        <v>98.7132770550906</v>
       </c>
       <c r="C407" t="n">
-        <v>87.9912628605928</v>
+        <v>98.74654949630829</v>
       </c>
       <c r="D407" t="n">
-        <v>-0.07947931651150952</v>
+        <v>-0.03327244121769013</v>
       </c>
     </row>
     <row r="408">
@@ -6139,685 +6139,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>87.91850484328117</v>
+        <v>98.80550994402533</v>
       </c>
       <c r="C408" t="n">
-        <v>87.95338418038467</v>
+        <v>98.7421344386582</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.03487933710350433</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>87.92043107209889</v>
-      </c>
-      <c r="C409" t="n">
-        <v>88.00727936809075</v>
-      </c>
-      <c r="D409" t="n">
-        <v>-0.08684829599185662</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>87.92328282673336</v>
-      </c>
-      <c r="C410" t="n">
-        <v>87.95857900699265</v>
-      </c>
-      <c r="D410" t="n">
-        <v>-0.03529618025929437</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>87.92489475676456</v>
-      </c>
-      <c r="C411" t="n">
-        <v>87.94812634735032</v>
-      </c>
-      <c r="D411" t="n">
-        <v>-0.02323159058576607</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>87.93220208491751</v>
-      </c>
-      <c r="C412" t="n">
-        <v>87.93730662350332</v>
-      </c>
-      <c r="D412" t="n">
-        <v>-0.005104538585811724</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>87.9344772498653</v>
-      </c>
-      <c r="C413" t="n">
-        <v>87.96928186073596</v>
-      </c>
-      <c r="D413" t="n">
-        <v>-0.03480461087066544</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>87.93727457272485</v>
-      </c>
-      <c r="C414" t="n">
-        <v>88.00600048669963</v>
-      </c>
-      <c r="D414" t="n">
-        <v>-0.068725913974788</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>87.9420959477356</v>
-      </c>
-      <c r="C415" t="n">
-        <v>87.98209752658674</v>
-      </c>
-      <c r="D415" t="n">
-        <v>-0.04000157885114675</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>87.94382886738951</v>
-      </c>
-      <c r="C416" t="n">
-        <v>87.95263370453696</v>
-      </c>
-      <c r="D416" t="n">
-        <v>-0.008804837147451394</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>87.94761778927716</v>
-      </c>
-      <c r="C417" t="n">
-        <v>88.0172323964505</v>
-      </c>
-      <c r="D417" t="n">
-        <v>-0.06961460717333523</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>87.95498782186415</v>
-      </c>
-      <c r="C418" t="n">
-        <v>87.98238957798068</v>
-      </c>
-      <c r="D418" t="n">
-        <v>-0.02740175611653228</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>87.98227120470139</v>
-      </c>
-      <c r="C419" t="n">
-        <v>88.00678280837114</v>
-      </c>
-      <c r="D419" t="n">
-        <v>-0.02451160366975103</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>87.9917675613133</v>
-      </c>
-      <c r="C420" t="n">
-        <v>88.03701346895888</v>
-      </c>
-      <c r="D420" t="n">
-        <v>-0.04524590764557956</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>87.99287690001751</v>
-      </c>
-      <c r="C421" t="n">
-        <v>88.11226503570755</v>
-      </c>
-      <c r="D421" t="n">
-        <v>-0.1193881356900448</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>88.00920509879737</v>
-      </c>
-      <c r="C422" t="n">
-        <v>88.01958030364939</v>
-      </c>
-      <c r="D422" t="n">
-        <v>-0.01037520485202492</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>88.0117152025522</v>
-      </c>
-      <c r="C423" t="n">
-        <v>88.02403066045837</v>
-      </c>
-      <c r="D423" t="n">
-        <v>-0.01231545790616906</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>88.01857074072275</v>
-      </c>
-      <c r="C424" t="n">
-        <v>88.13531495793097</v>
-      </c>
-      <c r="D424" t="n">
-        <v>-0.1167442172082218</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>88.02055148622469</v>
-      </c>
-      <c r="C425" t="n">
-        <v>88.04901710223014</v>
-      </c>
-      <c r="D425" t="n">
-        <v>-0.02846561600544817</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>88.02245167163383</v>
-      </c>
-      <c r="C426" t="n">
-        <v>88.13566422681937</v>
-      </c>
-      <c r="D426" t="n">
-        <v>-0.113212555185541</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>88.02297179389386</v>
-      </c>
-      <c r="C427" t="n">
-        <v>88.10433848263476</v>
-      </c>
-      <c r="D427" t="n">
-        <v>-0.08136668874089992</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>88.03532772994492</v>
-      </c>
-      <c r="C428" t="n">
-        <v>88.10128322501187</v>
-      </c>
-      <c r="D428" t="n">
-        <v>-0.06595549506694454</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>88.0486022167017</v>
-      </c>
-      <c r="C429" t="n">
-        <v>88.07090962225558</v>
-      </c>
-      <c r="D429" t="n">
-        <v>-0.02230740555388877</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>88.07019935816365</v>
-      </c>
-      <c r="C430" t="n">
-        <v>88.08542673139316</v>
-      </c>
-      <c r="D430" t="n">
-        <v>-0.01522737322950718</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>88.07730874046993</v>
-      </c>
-      <c r="C431" t="n">
-        <v>88.126614314913</v>
-      </c>
-      <c r="D431" t="n">
-        <v>-0.04930557444306771</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>88.0936896951257</v>
-      </c>
-      <c r="C432" t="n">
-        <v>88.09786227141063</v>
-      </c>
-      <c r="D432" t="n">
-        <v>-0.004172576284929619</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>88.11352196230163</v>
-      </c>
-      <c r="C433" t="n">
-        <v>88.11528304613306</v>
-      </c>
-      <c r="D433" t="n">
-        <v>-0.001761083831425481</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>88.19231998301271</v>
-      </c>
-      <c r="C434" t="n">
-        <v>88.04684689309923</v>
-      </c>
-      <c r="D434" t="n">
-        <v>0.1454730899134802</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>89.87504778072504</v>
-      </c>
-      <c r="C435" t="n">
-        <v>89.93053066011119</v>
-      </c>
-      <c r="D435" t="n">
-        <v>-0.05548287938614749</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>89.87587421040436</v>
-      </c>
-      <c r="C436" t="n">
-        <v>89.97626153978732</v>
-      </c>
-      <c r="D436" t="n">
-        <v>-0.1003873293829542</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>89.89299060310319</v>
-      </c>
-      <c r="C437" t="n">
-        <v>89.98027992567015</v>
-      </c>
-      <c r="D437" t="n">
-        <v>-0.08728932256695998</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>89.90422821480936</v>
-      </c>
-      <c r="C438" t="n">
-        <v>89.90998718834501</v>
-      </c>
-      <c r="D438" t="n">
-        <v>-0.005758973535648693</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>89.94219045969857</v>
-      </c>
-      <c r="C439" t="n">
-        <v>89.94238637643357</v>
-      </c>
-      <c r="D439" t="n">
-        <v>-0.0001959167350094049</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>89.94362908627384</v>
-      </c>
-      <c r="C440" t="n">
-        <v>89.96736387448315</v>
-      </c>
-      <c r="D440" t="n">
-        <v>-0.02373478820931041</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>89.944816182154</v>
-      </c>
-      <c r="C441" t="n">
-        <v>89.96931305408484</v>
-      </c>
-      <c r="D441" t="n">
-        <v>-0.02449687193083605</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>89.95525730736645</v>
-      </c>
-      <c r="C442" t="n">
-        <v>89.99222506409647</v>
-      </c>
-      <c r="D442" t="n">
-        <v>-0.03696775673002151</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>90.08647573677587</v>
-      </c>
-      <c r="C443" t="n">
-        <v>90.11051274616533</v>
-      </c>
-      <c r="D443" t="n">
-        <v>-0.02403700938945974</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>90.09386691278659</v>
-      </c>
-      <c r="C444" t="n">
-        <v>90.23811853839287</v>
-      </c>
-      <c r="D444" t="n">
-        <v>-0.1442516256062731</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>90.10253772642591</v>
-      </c>
-      <c r="C445" t="n">
-        <v>90.15584122649544</v>
-      </c>
-      <c r="D445" t="n">
-        <v>-0.05330350006953211</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>90.10321933822458</v>
-      </c>
-      <c r="C446" t="n">
-        <v>90.11663136969656</v>
-      </c>
-      <c r="D446" t="n">
-        <v>-0.01341203147198655</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>90.10610698653215</v>
-      </c>
-      <c r="C447" t="n">
-        <v>90.13683488369021</v>
-      </c>
-      <c r="D447" t="n">
-        <v>-0.03072789715805868</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>90.12658974047181</v>
-      </c>
-      <c r="C448" t="n">
-        <v>90.16262234468545</v>
-      </c>
-      <c r="D448" t="n">
-        <v>-0.03603260421363075</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>90.12811300136835</v>
-      </c>
-      <c r="C449" t="n">
-        <v>90.20365532102741</v>
-      </c>
-      <c r="D449" t="n">
-        <v>-0.07554231965906411</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>90.12813395470796</v>
-      </c>
-      <c r="C450" t="n">
-        <v>90.15971097741865</v>
-      </c>
-      <c r="D450" t="n">
-        <v>-0.0315770227106924</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>90.14191046970107</v>
-      </c>
-      <c r="C451" t="n">
-        <v>90.20473540394579</v>
-      </c>
-      <c r="D451" t="n">
-        <v>-0.06282493424471625</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>90.14690601541189</v>
-      </c>
-      <c r="C452" t="n">
-        <v>90.17704897461584</v>
-      </c>
-      <c r="D452" t="n">
-        <v>-0.03014295920395682</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>90.1478069323429</v>
-      </c>
-      <c r="C453" t="n">
-        <v>90.22600427234029</v>
-      </c>
-      <c r="D453" t="n">
-        <v>-0.07819733999738787</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>90.15556152048579</v>
-      </c>
-      <c r="C454" t="n">
-        <v>90.24094451266623</v>
-      </c>
-      <c r="D454" t="n">
-        <v>-0.08538299218044187</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>90.1631581555702</v>
-      </c>
-      <c r="C455" t="n">
-        <v>90.23638401828046</v>
-      </c>
-      <c r="D455" t="n">
-        <v>-0.07322586271025955</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>90.19774249707888</v>
-      </c>
-      <c r="C456" t="n">
-        <v>90.20781264678403</v>
-      </c>
-      <c r="D456" t="n">
-        <v>-0.01007014970515741</v>
+        <v>0.06337550536713366</v>
       </c>
     </row>
   </sheetData>
